--- a/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
+++ b/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIMJH\Documents\GitHub\PythonPjt\CodeReviewTool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIMJH\Documents\GitHub\PythonPjt\CodeReviewTool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1_7월 개발일정" sheetId="1" r:id="rId1"/>
     <sheet name="2_코드리뷰점검Tool 프로세스" sheetId="2" r:id="rId2"/>
     <sheet name="3_코드리뷰점검Tool_항목" sheetId="3" r:id="rId3"/>
     <sheet name="4_UI 설계" sheetId="4" r:id="rId4"/>
+    <sheet name="5_기능 개발" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="72">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -402,6 +403,126 @@
     <t xml:space="preserve"> - config에서 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>검증 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 전역 변수 중에서 이력 변수가 선언되었는지 확인
+  - g_script_release_version, g_script_release_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 전역 변수, 함수 이름 체크 기능 구현
+   : 코드에서 자료형 &amp; 세미콜론 ";" 으로 구분하여 변수 찾기 
+   : 전역 변수와 선언된 함수가 미사용 되었는지 확인 -&gt; NG
+ 2) 함수내에서 지역 변수 선언 확인
+   : 함수에서 지역 변수가 미사용 된 경우 확인 -&gt; NG
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) dp로 시작하는 함수의 경우 리턴 값 처리가 되었는지 확인
+   - dpGet, dpSet 등...
+   - 소문자 dp 시작 후 뒤에 문자가 대문자후 "(" 들어오는 경우 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) dpS로 시작하는 함수가 있는지 확인
+ 2) 이 함수가 시작하기 전에 if문 조건에 Active가 선언되어 있는지 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 케이스 확인이 어려움
+ - Active 조건이 다른 함수에서 조건이로 설정이 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) while문 내에 "delay(" 가 동작하는지 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Callback 함수 내 이벤트 처리의 병목 발생 요소 최소화
+  : Callback 함수 Delay 사용 지양 (스레드 큐 사용)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작 Step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 함수내에서 대입("=") 연산자 사용시 "" 하드 코딩 사용되었는지 확인
+  - "" 초기화는 제외 가능
+  - "=" 우측 변에 ""이 들어가있는지 확인
+  - 우측변에 숫자가 들어가는 것도 확인
+ 2) NG 케이스
+  - 문법 동작 시 "" 있는 경우
+  - 괄호안에 숫자가 들어가 있는 경우
+  - 대입연산자 사용시 문자열 or 숫자가 들어가 있는 경우 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 함수 선언 확인
+  - 문자열 + "(" 규칙으로 함수 선언 확인
+ 2) 선언된 함수 내(Body)에서 try, catch가 설정되었는지 확인
+   - 찾은 함수 내에서 ("{" ~ "}")함수 내에서 try, catch로 선언 되어 있는지 확인
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 반복문 내에 dpGet, dpSet이 확인 -&gt; NG
+   - for문 내에 호출 함수 확인
+ 2) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) Callback("CB", "Callback") 함수내에 delay 문자열 확인
+ 2) connect함수로 호출한 함수 내에서 delay 문자열이 들어갔는지 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) "dpSet*" 사용하는 함수 확인 (timed 제외)
+ 2) "dpSet*" 사용 함수에서 변경하는 DP 변수 확인
+ 3) DP 변수에 어떤 값이 들어가있는지 확인
+ 4) "_alert_hdl" 문자열이 들어가 있는 경우 NG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -410,7 +531,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,8 +644,32 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,8 +699,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -699,22 +859,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -723,22 +887,42 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,69 +1007,126 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="나쁨" xfId="3" builtinId="27"/>
+    <cellStyle name="메모" xfId="4" builtinId="10"/>
     <cellStyle name="보통" xfId="1" builtinId="28"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -907,16 +1148,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>57977</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>670889</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>115959</xdr:rowOff>
+          <xdr:rowOff>8284</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>22</xdr:col>
-          <xdr:colOff>134177</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>4144</xdr:rowOff>
+          <xdr:colOff>59632</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>103534</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -925,7 +1166,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3100"/>
+                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3116"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -939,7 +1180,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="745434" y="1581981"/>
+              <a:off x="670889" y="1474306"/>
               <a:ext cx="10172700" cy="3822424"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3910,10 +4151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T6"/>
+  <dimension ref="B1:T6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3923,147 +4164,148 @@
     <col min="5" max="16" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="28">
+      <c r="B2" s="53">
         <v>45481</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="54">
         <v>45482</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="54">
         <v>45483</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="54">
         <v>45484</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="55">
         <v>45485</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="53">
         <v>45488</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="54">
         <v>45489</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="54">
         <v>45490</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="54">
         <v>45491</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="55">
         <v>45492</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="53">
         <v>45495</v>
       </c>
-      <c r="M2" s="29">
+      <c r="M2" s="54">
         <v>45496</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="54">
         <v>45497</v>
       </c>
-      <c r="O2" s="29">
+      <c r="O2" s="54">
         <v>45498</v>
       </c>
-      <c r="P2" s="30">
+      <c r="P2" s="55">
         <v>45499</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="42">
+      <c r="B3" s="40">
         <v>1</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="36"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="32"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="33">
+      <c r="B4" s="33"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="38">
         <v>2</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="61">
         <v>3</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="57">
         <v>4</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="38"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="34"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="33">
+      <c r="B5" s="33"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="57">
         <v>5</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="38">
         <v>7</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="38">
         <v>8</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="42">
         <v>9</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="38"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="34"/>
       <c r="T5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="39"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="40">
+      <c r="K6" s="59"/>
+      <c r="L6" s="60">
         <v>11</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="36">
         <v>12</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N6" s="36">
         <v>13</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="36">
         <v>14</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="37">
         <v>15</v>
       </c>
     </row>
@@ -4356,8 +4598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4396,7 +4638,7 @@
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="44" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -4416,7 +4658,7 @@
       <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
@@ -4434,7 +4676,7 @@
       <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="12" t="s">
         <v>45</v>
       </c>
@@ -4452,7 +4694,7 @@
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
@@ -4470,7 +4712,7 @@
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
@@ -4488,7 +4730,7 @@
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="14" t="s">
         <v>44</v>
       </c>
@@ -4506,7 +4748,7 @@
       <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="43" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -4526,7 +4768,7 @@
       <c r="B10" s="26">
         <v>8</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
@@ -4544,7 +4786,7 @@
       <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
@@ -4562,7 +4804,7 @@
       <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="14" t="s">
         <v>21</v>
       </c>
@@ -4580,7 +4822,7 @@
       <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -4598,7 +4840,7 @@
       <c r="B14" s="26">
         <v>12</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
@@ -4616,7 +4858,7 @@
       <c r="B15" s="26">
         <v>13</v>
       </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
@@ -4634,7 +4876,7 @@
       <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
@@ -4652,7 +4894,7 @@
       <c r="B17" s="26">
         <v>15</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="9" t="s">
         <v>15</v>
       </c>
@@ -4670,7 +4912,7 @@
       <c r="B18" s="26">
         <v>16</v>
       </c>
-      <c r="C18" s="47"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="18" t="s">
         <v>14</v>
       </c>
@@ -4698,7 +4940,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4707,4 +4949,466 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.25" customWidth="1"/>
+    <col min="7" max="7" width="49.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="26">
+        <v>2</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="26">
+        <v>3</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="26">
+        <v>4</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="26">
+        <v>5</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="26">
+        <v>6</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="26">
+        <v>7</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="26">
+        <v>8</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="26">
+        <v>9</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="26">
+        <v>10</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="26">
+        <v>11</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="26">
+        <v>12</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="26">
+        <v>13</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="B17" s="26">
+        <v>14</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="26">
+        <v>15</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="26">
+        <v>16</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="D23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="D26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="D28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="D38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="D40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C19"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
+++ b/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1_7월 개발일정" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="3_코드리뷰점검Tool_항목" sheetId="3" r:id="rId3"/>
     <sheet name="4_UI 설계" sheetId="4" r:id="rId4"/>
     <sheet name="5_기능 개발" sheetId="6" r:id="rId5"/>
+    <sheet name="코드리뷰점검결과_DataFrame_구조" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -413,23 +414,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1) 전역 변수, 함수 이름 체크 기능 구현
-   : 코드에서 자료형 &amp; 세미콜론 ";" 으로 구분하여 변수 찾기 
-   : 전역 변수와 선언된 함수가 미사용 되었는지 확인 -&gt; NG
- 2) 함수내에서 지역 변수 선언 확인
-   : 함수에서 지역 변수가 미사용 된 경우 확인 -&gt; NG
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1) dp로 시작하는 함수의 경우 리턴 값 처리가 되었는지 확인
    - dpGet, dpSet 등...
    - 소문자 dp 시작 후 뒤에 문자가 대문자후 "(" 들어오는 경우 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1) dpS로 시작하는 함수가 있는지 확인
- 2) 이 함수가 시작하기 전에 if문 조건에 Active가 선언되어 있는지 확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -523,6 +510,170 @@
  4) "_alert_hdl" 문자열이 들어가 있는 경우 NG</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">규칙 1) 함수내 사용 코드
+규칙 2) DebugTN, Log 함수에서 사용은 제외
+규칙 3) NG 조건
+    : 괄호 안에 상수 들어가는 경우
+    : ""문자열을 사용 하는 경우
+    : 대입연산자 우항에 들어오는 경우
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 전역 변수, 함수 이름 체크 기능 구현
+   - 전역 변수 정의 확인
+   - 함수와 함수 Body 분리
+  3) 함수 호출 확인 
+   : 함수 호출되었는지 확인 -&gt; thread로 호출, Callback함수로 호출, 실제 호출
+     -&gt; StartThread 호출시 "" 사용 포함
+     -&gt; Query, Connect 호출시 ""사용 포함
+     -&gt; 일반 호출 : 함수이름(); 사용 확인
+   : 
+ 코드에서 자료형 &amp; 세미콜론 ";" 으로 구분하여 변수 찾기 
+   : 전역 변수와 선언된 함수가 미사용 되었는지 확인 -&gt; NG
+ 2) 함수내에서 지역 변수 선언 확인
+   : 함수에서 지역 변수가 미사용 된 경우 확인 -&gt; NG
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리뷰</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리뷰</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항목</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) dpS*로 시작하는 함수가 있는지 확인
+ 2) 이 함수가 시작하기 전에 if문 조건에 Active가 선언되어 있는지 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -531,7 +682,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,6 +818,14 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="9">
@@ -922,7 +1081,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1043,6 +1202,66 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1052,6 +1271,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1061,65 +1283,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1149,15 +1314,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>670889</xdr:colOff>
+          <xdr:colOff>596346</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>8284</xdr:rowOff>
+          <xdr:rowOff>66262</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>59632</xdr:colOff>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>672546</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>103534</xdr:rowOff>
+          <xdr:rowOff>161512</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1166,7 +1331,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3116"/>
+                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3137"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1180,7 +1345,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="670889" y="1474306"/>
+              <a:off x="596346" y="1540566"/>
               <a:ext cx="10172700" cy="3822424"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4154,7 +4319,7 @@
   <dimension ref="B1:T6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4166,66 +4331,66 @@
   <sheetData>
     <row r="1" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="53">
+      <c r="B2" s="48">
         <v>45481</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="49">
         <v>45482</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="49">
         <v>45483</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="49">
         <v>45484</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="50">
         <v>45485</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="48">
         <v>45488</v>
       </c>
-      <c r="H2" s="54">
+      <c r="H2" s="49">
         <v>45489</v>
       </c>
-      <c r="I2" s="54">
+      <c r="I2" s="49">
         <v>45490</v>
       </c>
-      <c r="J2" s="54">
+      <c r="J2" s="49">
         <v>45491</v>
       </c>
-      <c r="K2" s="55">
+      <c r="K2" s="50">
         <v>45492</v>
       </c>
-      <c r="L2" s="53">
+      <c r="L2" s="48">
         <v>45495</v>
       </c>
-      <c r="M2" s="54">
+      <c r="M2" s="49">
         <v>45496</v>
       </c>
-      <c r="N2" s="54">
+      <c r="N2" s="49">
         <v>45497</v>
       </c>
-      <c r="O2" s="54">
+      <c r="O2" s="49">
         <v>45498</v>
       </c>
-      <c r="P2" s="55">
+      <c r="P2" s="50">
         <v>45499</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="40">
+      <c r="B3" s="60">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
-      <c r="G3" s="56"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
       <c r="K3" s="32"/>
-      <c r="L3" s="56"/>
+      <c r="L3" s="51"/>
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
@@ -4238,10 +4403,10 @@
       <c r="E4" s="38">
         <v>2</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="55">
         <v>3</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="52">
         <v>4</v>
       </c>
       <c r="H4" s="28"/>
@@ -4259,8 +4424,8 @@
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="57">
+      <c r="F5" s="56"/>
+      <c r="G5" s="52">
         <v>5</v>
       </c>
       <c r="H5" s="38">
@@ -4269,10 +4434,10 @@
       <c r="I5" s="38">
         <v>8</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="62">
         <v>9</v>
       </c>
-      <c r="K5" s="58"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="33"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
@@ -4287,13 +4452,13 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="59"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="35"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60">
+      <c r="K6" s="53"/>
+      <c r="L6" s="54">
         <v>11</v>
       </c>
       <c r="M6" s="36">
@@ -4638,7 +4803,7 @@
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="65" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -4658,7 +4823,7 @@
       <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
@@ -4676,7 +4841,7 @@
       <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="12" t="s">
         <v>45</v>
       </c>
@@ -4694,7 +4859,7 @@
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
@@ -4712,7 +4877,7 @@
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
@@ -4730,7 +4895,7 @@
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="14" t="s">
         <v>44</v>
       </c>
@@ -4748,7 +4913,7 @@
       <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="64" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -4768,7 +4933,7 @@
       <c r="B10" s="26">
         <v>8</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
@@ -4786,7 +4951,7 @@
       <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
@@ -4804,7 +4969,7 @@
       <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="14" t="s">
         <v>21</v>
       </c>
@@ -4822,7 +4987,7 @@
       <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -4840,7 +5005,7 @@
       <c r="B14" s="26">
         <v>12</v>
       </c>
-      <c r="C14" s="44"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
@@ -4858,7 +5023,7 @@
       <c r="B15" s="26">
         <v>13</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
@@ -4876,7 +5041,7 @@
       <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
@@ -4894,7 +5059,7 @@
       <c r="B17" s="26">
         <v>15</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="9" t="s">
         <v>15</v>
       </c>
@@ -4912,7 +5077,7 @@
       <c r="B18" s="26">
         <v>16</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="18" t="s">
         <v>14</v>
       </c>
@@ -4953,10 +5118,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G40"/>
+  <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4964,7 +5129,7 @@
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="42" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70.25" customWidth="1"/>
     <col min="7" max="7" width="49.125" customWidth="1"/>
   </cols>
@@ -4980,7 +5145,7 @@
       <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="39" t="s">
@@ -4994,13 +5159,13 @@
       <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="65" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="44" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -5014,11 +5179,11 @@
       <c r="B5" s="26">
         <v>2</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="44" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -5032,11 +5197,11 @@
       <c r="B6" s="26">
         <v>3</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="44" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -5050,11 +5215,11 @@
       <c r="B7" s="26">
         <v>4</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="44" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -5068,11 +5233,11 @@
       <c r="B8" s="26">
         <v>5</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="44" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -5086,7 +5251,7 @@
       <c r="B9" s="26">
         <v>6</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="14" t="s">
         <v>44</v>
       </c>
@@ -5104,13 +5269,13 @@
       <c r="B10" s="26">
         <v>7</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="64" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="45" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -5124,11 +5289,11 @@
       <c r="B11" s="26">
         <v>8</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="44" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -5142,11 +5307,11 @@
       <c r="B12" s="26">
         <v>9</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="44" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -5160,11 +5325,11 @@
       <c r="B13" s="26">
         <v>10</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="16" t="s">
@@ -5178,13 +5343,13 @@
       <c r="B14" s="26">
         <v>11</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="45" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="8"/>
@@ -5196,11 +5361,11 @@
       <c r="B15" s="26">
         <v>12</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="44" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -5214,11 +5379,11 @@
       <c r="B16" s="26">
         <v>13</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="44" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -5232,15 +5397,15 @@
       <c r="B17" s="26">
         <v>14</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="44" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>37</v>
@@ -5250,11 +5415,11 @@
       <c r="B18" s="26">
         <v>15</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="44" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -5268,11 +5433,11 @@
       <c r="B19" s="26">
         <v>16</v>
       </c>
-      <c r="C19" s="45"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="20"/>
@@ -5281,32 +5446,32 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="47" t="s">
-        <v>57</v>
+      <c r="E22" s="42" t="s">
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="115.5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="280.5" x14ac:dyDescent="0.3">
       <c r="D23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="64" t="s">
-        <v>51</v>
+      <c r="E23" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="D24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="63" t="s">
+      <c r="E24" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="57" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5314,33 +5479,36 @@
       <c r="D26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="52" t="s">
+      <c r="E26" s="42" t="s">
         <v>66</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="115.5" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>67</v>
+      <c r="E28" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="52" t="s">
-        <v>52</v>
+      <c r="E30" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -5348,57 +5516,81 @@
       <c r="D32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>54</v>
+      <c r="E32" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="65" t="s">
-        <v>55</v>
+      <c r="E34" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>69</v>
+      <c r="E36" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="4:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>70</v>
+      <c r="E38" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="4:6" ht="66" x14ac:dyDescent="0.3">
       <c r="D40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="46" t="s">
+      <c r="E40" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D44" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="42" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5411,4 +5603,46 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
+++ b/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1_7월 개발일정" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="4_UI 설계" sheetId="4" r:id="rId4"/>
     <sheet name="5_기능 개발" sheetId="6" r:id="rId5"/>
     <sheet name="코드리뷰점검결과_DataFrame_구조" sheetId="7" r:id="rId6"/>
+    <sheet name="6_사용하는 정규식" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="88">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -674,6 +675,38 @@
  2) 이 함수가 시작하기 전에 if문 조건에 Active가 선언되어 있는지 확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>정규식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '=\s*([^;]+)\s*;'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대입 연산자에서 우항을캡쳐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드 코딩 예외</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r'[^\s\+\-\*/\%]+'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우항에서 연산제를 제외하고 피연산자를 캡쳐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -682,7 +715,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,6 +859,12 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1081,7 +1120,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1262,6 +1301,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="4" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1283,8 +1325,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1331,7 +1373,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3137"/>
+                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3143"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4322,15 +4364,15 @@
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="4.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="16" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:20" ht="17.25" thickBot="1">
       <c r="B2" s="48">
         <v>45481</v>
       </c>
@@ -4377,12 +4419,12 @@
         <v>45499</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="60">
+    <row r="3" spans="2:20">
+      <c r="B3" s="61">
         <v>1</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
       <c r="G3" s="51"/>
@@ -4396,7 +4438,7 @@
       <c r="O3" s="31"/>
       <c r="P3" s="32"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20">
       <c r="B4" s="33"/>
       <c r="C4" s="29"/>
       <c r="D4" s="28"/>
@@ -4419,7 +4461,7 @@
       <c r="O4" s="28"/>
       <c r="P4" s="34"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20">
       <c r="B5" s="33"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -4434,10 +4476,10 @@
       <c r="I5" s="38">
         <v>8</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="63">
         <v>9</v>
       </c>
-      <c r="K5" s="63"/>
+      <c r="K5" s="64"/>
       <c r="L5" s="33"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
@@ -4447,7 +4489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:20" ht="17.25" thickBot="1">
       <c r="B6" s="35"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -4495,9 +4537,9 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4512,7 +4554,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4527,7 +4569,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4542,7 +4584,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -4557,7 +4599,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4572,7 +4614,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4587,7 +4629,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4602,7 +4644,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4617,7 +4659,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4632,7 +4674,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4647,7 +4689,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4662,7 +4704,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4677,7 +4719,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4692,7 +4734,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4707,7 +4749,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4722,7 +4764,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4737,7 +4779,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4767,7 +4809,7 @@
       <selection activeCell="B2" sqref="B2:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="46" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
@@ -4778,8 +4820,8 @@
     <col min="7" max="7" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:7">
       <c r="B2" s="22" t="s">
         <v>43</v>
       </c>
@@ -4799,11 +4841,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="66" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -4819,11 +4861,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
@@ -4837,11 +4879,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7">
       <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="12" t="s">
         <v>45</v>
       </c>
@@ -4855,11 +4897,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
@@ -4873,11 +4915,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7">
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
@@ -4891,11 +4933,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="17.25" thickBot="1">
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="14" t="s">
         <v>44</v>
       </c>
@@ -4909,11 +4951,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7">
       <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -4929,11 +4971,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7">
       <c r="B10" s="26">
         <v>8</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
@@ -4947,11 +4989,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7">
       <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
@@ -4965,11 +5007,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" ht="17.25" thickBot="1">
       <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="14" t="s">
         <v>21</v>
       </c>
@@ -4983,11 +5025,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="23.25">
       <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="65" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -5001,11 +5043,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7">
       <c r="B14" s="26">
         <v>12</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
@@ -5019,11 +5061,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7">
       <c r="B15" s="26">
         <v>13</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
@@ -5037,11 +5079,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="24">
       <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
@@ -5055,11 +5097,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7">
       <c r="B17" s="26">
         <v>15</v>
       </c>
-      <c r="C17" s="65"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="9" t="s">
         <v>15</v>
       </c>
@@ -5073,11 +5115,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" ht="24" thickBot="1">
       <c r="B18" s="26">
         <v>16</v>
       </c>
-      <c r="C18" s="66"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="18" t="s">
         <v>14</v>
       </c>
@@ -5108,7 +5150,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5120,11 +5162,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:G44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
@@ -5134,8 +5176,8 @@
     <col min="7" max="7" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:7">
       <c r="B3" s="22" t="s">
         <v>43</v>
       </c>
@@ -5155,11 +5197,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="66" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -5175,11 +5217,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7">
       <c r="B5" s="26">
         <v>2</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="12" t="s">
         <v>29</v>
       </c>
@@ -5193,11 +5235,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" s="26">
         <v>3</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="12" t="s">
         <v>45</v>
       </c>
@@ -5211,11 +5253,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7">
       <c r="B7" s="26">
         <v>4</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
@@ -5229,11 +5271,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7">
       <c r="B8" s="26">
         <v>5</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
@@ -5247,11 +5289,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="17.25" thickBot="1">
       <c r="B9" s="26">
         <v>6</v>
       </c>
-      <c r="C9" s="66"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="14" t="s">
         <v>44</v>
       </c>
@@ -5265,11 +5307,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7">
       <c r="B10" s="26">
         <v>7</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -5285,11 +5327,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7">
       <c r="B11" s="26">
         <v>8</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
@@ -5303,11 +5345,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7">
       <c r="B12" s="26">
         <v>9</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
@@ -5321,11 +5363,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" ht="17.25" thickBot="1">
       <c r="B13" s="26">
         <v>10</v>
       </c>
-      <c r="C13" s="66"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="14" t="s">
         <v>21</v>
       </c>
@@ -5339,11 +5381,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="23.25">
       <c r="B14" s="26">
         <v>11</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="65" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -5357,11 +5399,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7">
       <c r="B15" s="26">
         <v>12</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
@@ -5375,11 +5417,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7">
       <c r="B16" s="26">
         <v>13</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
@@ -5393,11 +5435,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="24">
       <c r="B17" s="26">
         <v>14</v>
       </c>
-      <c r="C17" s="65"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
@@ -5411,11 +5453,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18" s="26">
         <v>15</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="9" t="s">
         <v>15</v>
       </c>
@@ -5429,11 +5471,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" ht="24" thickBot="1">
       <c r="B19" s="26">
         <v>16</v>
       </c>
-      <c r="C19" s="66"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="18" t="s">
         <v>14</v>
       </c>
@@ -5445,7 +5487,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7">
       <c r="E22" s="42" t="s">
         <v>55</v>
       </c>
@@ -5453,7 +5495,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="280.5">
       <c r="D23" s="12" t="s">
         <v>32</v>
       </c>
@@ -5464,7 +5506,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="33">
       <c r="D24" s="12" t="s">
         <v>29</v>
       </c>
@@ -5475,7 +5517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="132">
       <c r="D26" s="12" t="s">
         <v>45</v>
       </c>
@@ -5489,7 +5531,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="115.5">
       <c r="D28" s="9" t="s">
         <v>27</v>
       </c>
@@ -5500,7 +5542,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="49.5">
       <c r="D30" s="9" t="s">
         <v>25</v>
       </c>
@@ -5511,8 +5553,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="32" spans="2:7" ht="49.5">
       <c r="D32" s="6" t="s">
         <v>7</v>
       </c>
@@ -5526,7 +5568,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:6">
       <c r="D34" s="9" t="s">
         <v>9</v>
       </c>
@@ -5537,7 +5579,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="4:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:6" ht="66" customHeight="1">
       <c r="D36" s="9" t="s">
         <v>10</v>
       </c>
@@ -5548,7 +5590,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="4:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:6" ht="33">
       <c r="D38" s="3" t="s">
         <v>39</v>
       </c>
@@ -5559,7 +5601,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="4:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:6" ht="66">
       <c r="D40" s="9" t="s">
         <v>15</v>
       </c>
@@ -5570,7 +5612,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:6">
       <c r="D42" s="9" t="s">
         <v>17</v>
       </c>
@@ -5578,7 +5620,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:6">
       <c r="D43" s="12" t="s">
         <v>19</v>
       </c>
@@ -5586,7 +5628,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:6">
       <c r="D44" s="9" t="s">
         <v>22</v>
       </c>
@@ -5610,17 +5652,17 @@
   <dimension ref="B1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="28.25" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:7">
       <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
@@ -5630,14 +5672,66 @@
       <c r="D2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="60" t="s">
         <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="42.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
+++ b/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1_7월 개발일정" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="97">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -415,21 +415,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1) dp로 시작하는 함수의 경우 리턴 값 처리가 되었는지 확인
-   - dpGet, dpSet 등...
-   - 소문자 dp 시작 후 뒤에 문자가 대문자후 "(" 들어오는 경우 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 케이스 확인이 어려움
- - Active 조건이 다른 함수에서 조건이로 설정이 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1) while문 내에 "delay(" 가 동작하는지 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - Callback 함수 내 이벤트 처리의 병목 발생 요소 최소화
   : Callback 함수 Delay 사용 지양 (스레드 큐 사용)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -491,12 +476,6 @@
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1) 반복문 내에 dpGet, dpSet이 확인 -&gt; NG
-   - for문 내에 호출 함수 확인
- 2) </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -705,6 +684,61 @@
   </si>
   <si>
     <t>우항에서 연산제를 제외하고 피연산자를 캡쳐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 반복문 내에 dpGet, dpSet이 확인 -&gt; NG
+   - for문 내에 호출 함수 확인
+ 2) dpGet 연속 동작 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) dp* 함수가 사용하는 경우 대입(=)연산사가 없는 경우 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 케이스 확인이 어려움
+ - Active 조건이 다른 함수에서 조건이로 설정이 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) while문 내에 "delay(" 가 동작하는지 확인 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1120,7 +1154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1304,6 +1338,9 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1325,8 +1362,17 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1373,7 +1419,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3143"/>
+                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3153"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4420,11 +4466,11 @@
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="61">
+      <c r="B3" s="62">
         <v>1</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
       <c r="G3" s="51"/>
@@ -4476,10 +4522,10 @@
       <c r="I5" s="38">
         <v>8</v>
       </c>
-      <c r="J5" s="63">
+      <c r="J5" s="64">
         <v>9</v>
       </c>
-      <c r="K5" s="64"/>
+      <c r="K5" s="65"/>
       <c r="L5" s="33"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
@@ -4845,7 +4891,7 @@
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -4865,7 +4911,7 @@
       <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
@@ -4883,7 +4929,7 @@
       <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="66"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="12" t="s">
         <v>45</v>
       </c>
@@ -4901,7 +4947,7 @@
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
@@ -4919,7 +4965,7 @@
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
@@ -4937,7 +4983,7 @@
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="14" t="s">
         <v>44</v>
       </c>
@@ -4955,7 +5001,7 @@
       <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="66" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -4975,7 +5021,7 @@
       <c r="B10" s="26">
         <v>8</v>
       </c>
-      <c r="C10" s="66"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
@@ -4993,7 +5039,7 @@
       <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="66"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
@@ -5011,7 +5057,7 @@
       <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="14" t="s">
         <v>21</v>
       </c>
@@ -5029,7 +5075,7 @@
       <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="66" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -5047,7 +5093,7 @@
       <c r="B14" s="26">
         <v>12</v>
       </c>
-      <c r="C14" s="66"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
@@ -5065,7 +5111,7 @@
       <c r="B15" s="26">
         <v>13</v>
       </c>
-      <c r="C15" s="66"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
@@ -5083,7 +5129,7 @@
       <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
@@ -5101,7 +5147,7 @@
       <c r="B17" s="26">
         <v>15</v>
       </c>
-      <c r="C17" s="66"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="9" t="s">
         <v>15</v>
       </c>
@@ -5119,7 +5165,7 @@
       <c r="B18" s="26">
         <v>16</v>
       </c>
-      <c r="C18" s="67"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="18" t="s">
         <v>14</v>
       </c>
@@ -5160,10 +5206,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G44"/>
+  <dimension ref="B2:H44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5172,12 +5218,13 @@
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.25" customWidth="1"/>
-    <col min="7" max="7" width="49.125" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="42" customWidth="1"/>
+    <col min="7" max="7" width="70.25" customWidth="1"/>
+    <col min="8" max="8" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17.25" thickBot="1"/>
-    <row r="3" spans="2:7">
+    <row r="2" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:8">
       <c r="B3" s="22" t="s">
         <v>43</v>
       </c>
@@ -5190,18 +5237,19 @@
       <c r="E3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="43"/>
+      <c r="G3" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:8">
       <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -5210,108 +5258,114 @@
       <c r="E4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8">
       <c r="B5" s="26">
         <v>2</v>
       </c>
-      <c r="C5" s="66"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6" s="26">
         <v>3</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7" s="26">
         <v>4</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8">
       <c r="B8" s="26">
         <v>5</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="17.25" thickBot="1">
+    <row r="9" spans="2:8" ht="17.25" thickBot="1">
       <c r="B9" s="26">
         <v>6</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="H9" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:8">
       <c r="B10" s="26">
         <v>7</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="66" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -5320,72 +5374,76 @@
       <c r="E10" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="45"/>
+      <c r="G10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="H10" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:8">
       <c r="B11" s="26">
         <v>8</v>
       </c>
-      <c r="C11" s="66"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="44"/>
+      <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:8">
       <c r="B12" s="26">
         <v>9</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="44"/>
+      <c r="G12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="17.25" thickBot="1">
+    <row r="13" spans="2:8" ht="17.25" thickBot="1">
       <c r="B13" s="26">
         <v>10</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="46"/>
+      <c r="G13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="H13" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="23.25">
+    <row r="14" spans="2:8" ht="23.25">
       <c r="B14" s="26">
         <v>11</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="66" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -5394,246 +5452,316 @@
       <c r="E14" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="27" t="s">
+      <c r="F14" s="45"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:8">
       <c r="B15" s="26">
         <v>12</v>
       </c>
-      <c r="C15" s="66"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:8">
       <c r="B16" s="26">
         <v>13</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="24">
+    <row r="17" spans="2:8" ht="24">
       <c r="B17" s="26">
         <v>14</v>
       </c>
-      <c r="C17" s="66"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="44"/>
+      <c r="G17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:8">
       <c r="B18" s="26">
         <v>15</v>
       </c>
-      <c r="C18" s="66"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="44"/>
+      <c r="G18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="24" thickBot="1">
+    <row r="19" spans="2:8" ht="24" thickBot="1">
       <c r="B19" s="26">
         <v>16</v>
       </c>
-      <c r="C19" s="67"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:8">
       <c r="E22" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="280.5">
+        <v>52</v>
+      </c>
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="280.5">
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="D23" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="33">
+        <v>53</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="33">
+      <c r="C24">
+        <v>2</v>
+      </c>
       <c r="D24" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="132">
+    <row r="26" spans="2:8" ht="132">
+      <c r="C26">
+        <v>3</v>
+      </c>
       <c r="D26" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E26" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="115.5">
+    </row>
+    <row r="28" spans="2:8" ht="115.5">
+      <c r="C28">
+        <v>4</v>
+      </c>
       <c r="D28" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="49.5">
+        <v>54</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="C30">
+        <v>5</v>
+      </c>
       <c r="D30" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="17.25" thickBot="1"/>
-    <row r="32" spans="2:7" ht="49.5">
+        <v>54</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="32" spans="2:8" ht="49.5">
       <c r="D32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="41" t="s">
-        <v>79</v>
+        <v>55</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>90</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6">
+        <v>75</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34">
+        <v>7</v>
+      </c>
       <c r="D34" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="66" customHeight="1">
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="33">
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" ht="66" customHeight="1">
-      <c r="D36" s="9" t="s">
+      <c r="F38" s="70"/>
+      <c r="G38" s="47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="66">
+      <c r="C40">
         <v>10</v>
       </c>
-      <c r="E36" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" ht="33">
-      <c r="D38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" ht="66">
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="71" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6">
+        <v>58</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
       <c r="D42" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6">
+        <v>67</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
       <c r="D43" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6">
+        <v>68</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
       <c r="D44" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5667,19 +5795,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="60" t="s">
-        <v>78</v>
-      </c>
       <c r="F2" s="60" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5693,8 +5821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5706,32 +5834,32 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="68" t="s">
         <v>81</v>
       </c>
+      <c r="B3" s="61" t="s">
+        <v>77</v>
+      </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
+++ b/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1_7월 개발일정" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,11 @@
     <sheet name="5_기능 개발" sheetId="6" r:id="rId5"/>
     <sheet name="코드리뷰점검결과_DataFrame_구조" sheetId="7" r:id="rId6"/>
     <sheet name="6_사용하는 정규식" sheetId="8" r:id="rId7"/>
+    <sheet name="7. 기능 구현 방식" sheetId="9" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'7. 기능 구현 방식'!$A$1:$Q$61</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="111">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -433,10 +437,6 @@
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -733,12 +733,286 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> 1) while문 내에 "delay(" 가 동작하는지 확인 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>모든 케이스 확인이 어려움
  - Active 조건이 다른 함수에서 조건이로 설정이 가능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1) while문 내에 "delay(" 가 동작하는지 확인 </t>
+    <t xml:space="preserve"> - if문 조건안에 있는 delay는 제거
+ - try문 안에만 있는 거는 제거
+ - try, catch문 밖에 delay 있는 걸로 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Loop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조건</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Body 코드에서 while문 블록 분리 기능</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 함수 &amp; Body 코드 분리 기능 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>while문 찾는 정규식 패턴 : r'while\s*\([^)]*\)\s*{'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수 이름 패턴 -&gt;r'(?&lt;!/)\b([a-zA-Z_][a-zA-Z0-9_]*)\s*\('</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - while문 내 코드에서 '{}' 으로 분리하여 코드 저장
+  : 중복 {}에 대한 코드는 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Event, Ctrl Manager </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이벤트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>횟수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최소화</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적절한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적절한 DP 처리 함수 사용</t>
+  </si>
+  <si>
+    <t>기능 Flow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Body 코드에 Delay 있는 경우 체크</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +1023,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,8 +1174,15 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,6 +1225,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1154,7 +1441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1341,6 +1628,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1361,18 +1669,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1419,7 +1715,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3153"/>
+                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3161"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4466,11 +4762,11 @@
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="62">
+      <c r="B3" s="69">
         <v>1</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
       <c r="G3" s="51"/>
@@ -4522,10 +4818,10 @@
       <c r="I5" s="38">
         <v>8</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="71">
         <v>9</v>
       </c>
-      <c r="K5" s="65"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="33"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
@@ -4852,7 +5148,7 @@
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46" defaultRowHeight="16.5"/>
@@ -4891,7 +5187,7 @@
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="74" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -4911,7 +5207,7 @@
       <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
@@ -4929,7 +5225,7 @@
       <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="67"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="12" t="s">
         <v>45</v>
       </c>
@@ -4947,7 +5243,7 @@
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
@@ -4965,7 +5261,7 @@
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
@@ -4983,7 +5279,7 @@
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="14" t="s">
         <v>44</v>
       </c>
@@ -5001,7 +5297,7 @@
       <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="73" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -5021,7 +5317,7 @@
       <c r="B10" s="26">
         <v>8</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
@@ -5039,7 +5335,7 @@
       <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
@@ -5057,7 +5353,7 @@
       <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="14" t="s">
         <v>21</v>
       </c>
@@ -5075,7 +5371,7 @@
       <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="73" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -5093,7 +5389,7 @@
       <c r="B14" s="26">
         <v>12</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
@@ -5111,7 +5407,7 @@
       <c r="B15" s="26">
         <v>13</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
@@ -5129,7 +5425,7 @@
       <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
@@ -5147,7 +5443,7 @@
       <c r="B17" s="26">
         <v>15</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="9" t="s">
         <v>15</v>
       </c>
@@ -5165,7 +5461,7 @@
       <c r="B18" s="26">
         <v>16</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="18" t="s">
         <v>14</v>
       </c>
@@ -5208,8 +5504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5249,7 +5545,7 @@
       <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="74" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -5270,7 +5566,7 @@
       <c r="B5" s="26">
         <v>2</v>
       </c>
-      <c r="C5" s="67"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="12" t="s">
         <v>29</v>
       </c>
@@ -5289,7 +5585,7 @@
       <c r="B6" s="26">
         <v>3</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="12" t="s">
         <v>45</v>
       </c>
@@ -5308,7 +5604,7 @@
       <c r="B7" s="26">
         <v>4</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
@@ -5327,7 +5623,7 @@
       <c r="B8" s="26">
         <v>5</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
@@ -5346,7 +5642,7 @@
       <c r="B9" s="26">
         <v>6</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="14" t="s">
         <v>44</v>
       </c>
@@ -5365,7 +5661,7 @@
       <c r="B10" s="26">
         <v>7</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="73" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -5386,7 +5682,7 @@
       <c r="B11" s="26">
         <v>8</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
@@ -5405,7 +5701,7 @@
       <c r="B12" s="26">
         <v>9</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
@@ -5424,7 +5720,7 @@
       <c r="B13" s="26">
         <v>10</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="14" t="s">
         <v>21</v>
       </c>
@@ -5443,7 +5739,7 @@
       <c r="B14" s="26">
         <v>11</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="73" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -5462,7 +5758,7 @@
       <c r="B15" s="26">
         <v>12</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
@@ -5481,7 +5777,7 @@
       <c r="B16" s="26">
         <v>13</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
@@ -5500,7 +5796,7 @@
       <c r="B17" s="26">
         <v>14</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
@@ -5519,7 +5815,7 @@
       <c r="B18" s="26">
         <v>15</v>
       </c>
-      <c r="C18" s="67"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="9" t="s">
         <v>15</v>
       </c>
@@ -5538,7 +5834,7 @@
       <c r="B19" s="26">
         <v>16</v>
       </c>
-      <c r="C19" s="68"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="18" t="s">
         <v>14</v>
       </c>
@@ -5556,7 +5852,7 @@
         <v>52</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="280.5">
@@ -5570,10 +5866,10 @@
         <v>53</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="33">
@@ -5587,7 +5883,7 @@
         <v>54</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="57" t="s">
         <v>50</v>
@@ -5601,16 +5897,16 @@
         <v>45</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="72" t="s">
-        <v>61</v>
+        <v>84</v>
+      </c>
+      <c r="G26" s="65" t="s">
+        <v>60</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="115.5">
@@ -5624,10 +5920,10 @@
         <v>54</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="72" t="s">
-        <v>62</v>
+        <v>83</v>
+      </c>
+      <c r="G28" s="65" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -5641,10 +5937,10 @@
         <v>54</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="72" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="G30" s="65" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="17.25" thickBot="1"/>
@@ -5656,112 +5952,126 @@
         <v>55</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="49.5">
       <c r="C34">
         <v>7</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" ht="66" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="66" customHeight="1">
       <c r="C36">
         <v>8</v>
       </c>
-      <c r="D36" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>57</v>
+      <c r="D36" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>96</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" ht="33">
+        <v>86</v>
+      </c>
+      <c r="H36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="33">
       <c r="C38">
         <v>9</v>
       </c>
-      <c r="D38" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="70"/>
+      <c r="D38" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="63" t="s">
+        <v>96</v>
+      </c>
       <c r="G38" s="47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" ht="66">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" ht="66">
       <c r="C40">
         <v>10</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="D40" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="42" t="s">
-        <v>58</v>
+      <c r="E40" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="63" t="s">
+        <v>96</v>
       </c>
       <c r="G40" s="47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8">
       <c r="D42" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
       <c r="D43" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8">
       <c r="D44" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5772,6 +6082,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5795,19 +6106,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="F2" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="60" t="s">
+      <c r="G2" s="60" t="s">
         <v>71</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5822,7 +6133,7 @@
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5834,32 +6145,32 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
         <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5867,4 +6178,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="38.375" customWidth="1"/>
+    <col min="3" max="3" width="46.375" customWidth="1"/>
+    <col min="4" max="4" width="87.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="33">
+      <c r="B5" s="68"/>
+      <c r="C5" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="68"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
+++ b/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1_7월 개발일정" sheetId="1" r:id="rId1"/>
@@ -699,12 +699,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1) 반복문 내에 dpGet, dpSet이 확인 -&gt; NG
-   - for문 내에 호출 함수 확인
- 2) dpGet 연속 동작 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>진행</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1013,6 +1007,12 @@
   </si>
   <si>
     <t xml:space="preserve"> - Body 코드에 Delay 있는 경우 체크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 반복문 내에 dpGet, dpSet이 확인 -&gt; NG
+   - for문 내에 호출 함수 확인
+ 2) dpGet 연속 동작 확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1715,7 +1715,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3161"/>
+                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3162"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5504,8 +5504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5940,7 +5940,7 @@
         <v>83</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="17.25" thickBot="1"/>
@@ -5952,13 +5952,13 @@
         <v>55</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" s="41" t="s">
         <v>74</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="49.5">
@@ -5966,19 +5966,19 @@
         <v>7</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E34" s="42" t="s">
         <v>55</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H34" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="66" customHeight="1">
@@ -5986,19 +5986,19 @@
         <v>8</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E36" s="63" t="s">
         <v>56</v>
       </c>
       <c r="F36" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="H36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="33">
@@ -6006,13 +6006,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" s="63" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G38" s="47" t="s">
         <v>63</v>
@@ -6029,7 +6029,7 @@
         <v>57</v>
       </c>
       <c r="F40" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G40" s="47" t="s">
         <v>64</v>
@@ -6043,10 +6043,10 @@
         <v>66</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="3:8">
@@ -6057,10 +6057,10 @@
         <v>67</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="3:8">
@@ -6071,7 +6071,7 @@
         <v>66</v>
       </c>
       <c r="G44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -6184,7 +6184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
@@ -6197,10 +6197,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="66" t="s">
         <v>75</v>
@@ -6211,25 +6211,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="68"/>
       <c r="C4" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="33">
       <c r="B5" s="68"/>
       <c r="C5" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="68"/>
     </row>
@@ -6240,13 +6240,13 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:4">

--- a/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
+++ b/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1_7월 개발일정" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,14 @@
     <sheet name="3_코드리뷰점검Tool_항목" sheetId="3" r:id="rId3"/>
     <sheet name="4_UI 설계" sheetId="4" r:id="rId4"/>
     <sheet name="5_기능 개발" sheetId="6" r:id="rId5"/>
-    <sheet name="코드리뷰점검결과_DataFrame_구조" sheetId="7" r:id="rId6"/>
-    <sheet name="6_사용하는 정규식" sheetId="8" r:id="rId7"/>
-    <sheet name="7. 기능 구현 방식" sheetId="9" r:id="rId8"/>
+    <sheet name="6_기능별 Flow Chart" sheetId="10" r:id="rId6"/>
+    <sheet name="코드리뷰점검결과_DataFrame_구조" sheetId="7" r:id="rId7"/>
+    <sheet name="6_사용하는 정규식" sheetId="8" r:id="rId8"/>
+    <sheet name="7. 기능 구현 방식" sheetId="9" r:id="rId9"/>
+    <sheet name="개발 참고" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'7. 기능 구현 방식'!$A$1:$Q$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'7. 기능 구현 방식'!$A$1:$Q$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="116">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -479,11 +481,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1) Callback("CB", "Callback") 함수내에 delay 문자열 확인
- 2) connect함수로 호출한 함수 내에서 delay 문자열이 들어갔는지 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1) "dpSet*" 사용하는 함수 확인 (timed 제외)
  2) "dpSet*" 사용 함수에서 변경하는 DP 변수 확인
  3) DP 변수에 어떤 값이 들어가있는지 확인
@@ -526,127 +523,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리뷰</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결과</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상세 내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Y/N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리뷰</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>항목</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Line</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -699,10 +580,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -712,14 +589,6 @@
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일부 적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일부 적용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -754,79 +623,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Loop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>처리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조건</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - Body 코드에서 while문 블록 분리 기능</t>
   </si>
   <si>
@@ -844,79 +640,6 @@
   <si>
     <t xml:space="preserve"> - while문 내 코드에서 '{}' 으로 분리하여 코드 저장
   : 중복 {}에 대한 코드는 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Event, Ctrl Manager </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이벤트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>횟수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최소화</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1015,6 +738,179 @@
  2) dpGet 연속 동작 확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>불가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>* While</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> pattern = 'while\s*\([^)]*\)\s*{'</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Pattern = '(\b\w+\b)\s*\{' -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블록안에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> delay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Event, Ctrl Manager </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이벤트 교환 횟수 최소화</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Loop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>문 내에 처리 조건</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) Callback("CB", "Callback") 함수내에 delay 문자열 확인
+ 2) connect함수로 호출한 함수 내에서 delay 문자열이 들어갔는지 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Python 정규식 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1023,7 +919,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1180,6 +1076,27 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1441,7 +1358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1619,9 +1536,6 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1669,6 +1583,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1715,7 +1647,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3162"/>
+                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3175"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4437,6 +4369,543 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>682120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>290465</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="그룹 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="682120" y="414130"/>
+          <a:ext cx="3045628" cy="3934240"/>
+          <a:chOff x="684610" y="424962"/>
+          <a:chExt cx="2757172" cy="4613868"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="직사각형 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="684610" y="858297"/>
+            <a:ext cx="2754923" cy="4180533"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="직사각형 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="684610" y="424962"/>
+            <a:ext cx="2757172" cy="424961"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>Loop</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>문 처리 조건 확인</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1062404" y="996460"/>
+            <a:ext cx="2066193" cy="637442"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1000"/>
+              <a:t>[</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1000"/>
+              <a:t>공통</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1000"/>
+              <a:t>] </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1000"/>
+              <a:t>함수</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0"/>
+              <a:t>&amp; Body</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0"/>
+              <a:t> 코드 분리</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1000"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1062404" y="1987752"/>
+            <a:ext cx="2066193" cy="637873"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1000"/>
+              <a:t>Body </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1000"/>
+              <a:t>코드</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0"/>
+              <a:t>에서 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0"/>
+              <a:t>While</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0"/>
+              <a:t>문 체크</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1064653" y="4047601"/>
+            <a:ext cx="2066193" cy="637442"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+              <a:t>While</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+              <a:t>문 내 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+              <a:t>delay </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+              <a:t>코드 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+              <a:t>누락 확인</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="직선 화살표 연결선 7"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="4" idx="2"/>
+            <a:endCxn id="5" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2095501" y="1633902"/>
+            <a:ext cx="0" cy="353850"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="직선 화살표 연결선 8"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2095501" y="2625625"/>
+            <a:ext cx="0" cy="349106"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>414070</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>635011</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>26560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="모서리가 둥근 직사각형 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1102801" y="2656010"/>
+          <a:ext cx="2287133" cy="557762"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>while</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>문 내의 블록의</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t> 코드는 삭제</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180176</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>26560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180176</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>195079</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="직선 화살표 연결선 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2246368" y="3213772"/>
+          <a:ext cx="0" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="472821"/>
+          <a:ext cx="6858000" cy="3346704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -4762,11 +5231,11 @@
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="69">
+      <c r="B3" s="68">
         <v>1</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
       <c r="G3" s="51"/>
@@ -4818,10 +5287,10 @@
       <c r="I5" s="38">
         <v>8</v>
       </c>
-      <c r="J5" s="71">
+      <c r="J5" s="70">
         <v>9</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="71"/>
       <c r="L5" s="33"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
@@ -4868,6 +5337,28 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5187,7 +5678,7 @@
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="73" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -5207,7 +5698,7 @@
       <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="74"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
@@ -5225,7 +5716,7 @@
       <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="12" t="s">
         <v>45</v>
       </c>
@@ -5243,7 +5734,7 @@
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
@@ -5261,7 +5752,7 @@
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
@@ -5279,7 +5770,7 @@
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="14" t="s">
         <v>44</v>
       </c>
@@ -5297,7 +5788,7 @@
       <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="72" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -5317,7 +5808,7 @@
       <c r="B10" s="26">
         <v>8</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
@@ -5335,7 +5826,7 @@
       <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
@@ -5353,7 +5844,7 @@
       <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="14" t="s">
         <v>21</v>
       </c>
@@ -5371,7 +5862,7 @@
       <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="72" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -5389,7 +5880,7 @@
       <c r="B14" s="26">
         <v>12</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
@@ -5407,7 +5898,7 @@
       <c r="B15" s="26">
         <v>13</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
@@ -5425,7 +5916,7 @@
       <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
@@ -5443,7 +5934,7 @@
       <c r="B17" s="26">
         <v>15</v>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="9" t="s">
         <v>15</v>
       </c>
@@ -5461,7 +5952,7 @@
       <c r="B18" s="26">
         <v>16</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="18" t="s">
         <v>14</v>
       </c>
@@ -5504,8 +5995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5545,7 +6036,7 @@
       <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="73" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -5566,7 +6057,7 @@
       <c r="B5" s="26">
         <v>2</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="12" t="s">
         <v>29</v>
       </c>
@@ -5585,7 +6076,7 @@
       <c r="B6" s="26">
         <v>3</v>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="12" t="s">
         <v>45</v>
       </c>
@@ -5604,7 +6095,7 @@
       <c r="B7" s="26">
         <v>4</v>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
@@ -5623,7 +6114,7 @@
       <c r="B8" s="26">
         <v>5</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
@@ -5642,7 +6133,7 @@
       <c r="B9" s="26">
         <v>6</v>
       </c>
-      <c r="C9" s="75"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="14" t="s">
         <v>44</v>
       </c>
@@ -5661,7 +6152,7 @@
       <c r="B10" s="26">
         <v>7</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="72" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -5682,7 +6173,7 @@
       <c r="B11" s="26">
         <v>8</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
@@ -5701,7 +6192,7 @@
       <c r="B12" s="26">
         <v>9</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
@@ -5720,7 +6211,7 @@
       <c r="B13" s="26">
         <v>10</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="14" t="s">
         <v>21</v>
       </c>
@@ -5739,7 +6230,7 @@
       <c r="B14" s="26">
         <v>11</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="72" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -5758,7 +6249,7 @@
       <c r="B15" s="26">
         <v>12</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
@@ -5777,7 +6268,7 @@
       <c r="B16" s="26">
         <v>13</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
@@ -5796,7 +6287,7 @@
       <c r="B17" s="26">
         <v>14</v>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
@@ -5815,7 +6306,7 @@
       <c r="B18" s="26">
         <v>15</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="9" t="s">
         <v>15</v>
       </c>
@@ -5834,7 +6325,7 @@
       <c r="B19" s="26">
         <v>16</v>
       </c>
-      <c r="C19" s="75"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="18" t="s">
         <v>14</v>
       </c>
@@ -5866,10 +6357,10 @@
         <v>53</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="33">
@@ -5883,7 +6374,7 @@
         <v>54</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G24" s="57" t="s">
         <v>50</v>
@@ -5900,13 +6391,13 @@
         <v>62</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="64" t="s">
         <v>60</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="115.5">
@@ -5920,9 +6411,9 @@
         <v>54</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="64" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5937,10 +6428,10 @@
         <v>54</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="65" t="s">
-        <v>92</v>
+        <v>79</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="17.25" thickBot="1"/>
@@ -5952,87 +6443,87 @@
         <v>55</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="49.5">
       <c r="C34">
         <v>7</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="42" t="s">
+      <c r="D34" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="G34" s="59" t="s">
-        <v>93</v>
-      </c>
       <c r="H34" s="41" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="66" customHeight="1">
       <c r="C36">
         <v>8</v>
       </c>
-      <c r="D36" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="63" t="s">
+      <c r="D36" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="47" t="s">
-        <v>110</v>
+      <c r="F36" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="64" t="s">
+        <v>101</v>
       </c>
       <c r="H36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" ht="33">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="49.5">
       <c r="C38">
         <v>9</v>
       </c>
-      <c r="D38" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="63" t="s">
+      <c r="D38" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="63" t="s">
-        <v>95</v>
+      <c r="F38" s="62" t="s">
+        <v>88</v>
       </c>
       <c r="G38" s="47" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="66">
       <c r="C40">
         <v>10</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="D40" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="63" t="s">
+      <c r="E40" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="63" t="s">
-        <v>95</v>
+      <c r="F40" s="62" t="s">
+        <v>88</v>
       </c>
       <c r="G40" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="3:8">
@@ -6040,13 +6531,13 @@
         <v>17</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="3:8">
@@ -6054,13 +6545,13 @@
         <v>19</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="G43" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="3:8">
@@ -6068,10 +6559,13 @@
         <v>22</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>104</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -6088,10 +6582,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G9:G13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="9" spans="7:7">
+      <c r="G9" s="75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" s="75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.25" defaultRowHeight="16.5"/>
@@ -6105,20 +6626,20 @@
       <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="59" t="s">
         <v>69</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6128,7 +6649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C4"/>
   <sheetViews>
@@ -6145,32 +6666,32 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="61" t="s">
         <v>76</v>
       </c>
+      <c r="B3" s="60" t="s">
+        <v>72</v>
+      </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -6180,7 +6701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D13"/>
   <sheetViews>
@@ -6196,88 +6717,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>75</v>
+      <c r="B2" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>103</v>
+      <c r="C3" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="68"/>
-      <c r="C4" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>102</v>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="33">
-      <c r="B5" s="68"/>
-      <c r="C5" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="68"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="67"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>109</v>
+        <v>98</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
+++ b/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1_7월 개발일정" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="6_사용하는 정규식" sheetId="8" r:id="rId8"/>
     <sheet name="7. 기능 구현 방식" sheetId="9" r:id="rId9"/>
     <sheet name="개발 참고" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'7. 기능 구현 방식'!$A$1:$Q$61</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="192">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -911,6 +912,236 @@
     <t xml:space="preserve"> - Python 정규식 테스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>사용 케이스</t>
+  </si>
+  <si>
+    <t>예제</t>
+  </si>
+  <si>
+    <t>re.findall</t>
+  </si>
+  <si>
+    <t>주어진 패턴과 일치하는 모든 부분 문자열을 찾습니다.</t>
+  </si>
+  <si>
+    <t>텍스트에서 패턴과 일치하는 모든 문자열을 리스트로 얻고 싶을 때 사용</t>
+  </si>
+  <si>
+    <t>re.findall(r'\d+', 'There are 2 apples and 5 oranges') # ['2', '5']</t>
+  </si>
+  <si>
+    <t>re.compile</t>
+  </si>
+  <si>
+    <t>패턴을 컴파일하여 재사용 가능한 정규식 객체를 만듭니다.</t>
+  </si>
+  <si>
+    <t>동일한 패턴을 여러 번 사용할 때 성능을 최적화</t>
+  </si>
+  <si>
+    <t>pattern = re.compile(r'\d+') result = pattern.findall('There are 2 apples and 5 oranges') # ['2', '5']</t>
+  </si>
+  <si>
+    <t>re.sub</t>
+  </si>
+  <si>
+    <t>패턴과 일치하는 부분 문자열을 다른 문자열로 대체합니다.</t>
+  </si>
+  <si>
+    <t>텍스트에서 특정 패턴을 다른 문자열로 바꾸고 싶을 때 사용</t>
+  </si>
+  <si>
+    <t>re.sub(r'\d+', 'number', 'There are 2 apples and 5 oranges') # 'There are number apples and number oranges'</t>
+  </si>
+  <si>
+    <t>re.search</t>
+  </si>
+  <si>
+    <t>주어진 패턴과 일치하는 첫 번째 부분 문자열을 찾습니다.</t>
+  </si>
+  <si>
+    <t>텍스트에서 패턴과 일치하는 첫 번째 문자열을 찾고 싶을 때 사용</t>
+  </si>
+  <si>
+    <t>match = re.search(r'\d+', 'There are 2 apples and 5 oranges') if match: print(match.group()) # '2'</t>
+  </si>
+  <si>
+    <t>re.match</t>
+  </si>
+  <si>
+    <t>문자열의 시작 부분이 패턴과 일치하는지 확인합니다.</t>
+  </si>
+  <si>
+    <t>문자열이 특정 패턴으로 시작하는지 확인하고 싶을 때 사용</t>
+  </si>
+  <si>
+    <t>match = re.match(r'\d+', '2 apples and 5 oranges') if match: print(match.group()) # '2'</t>
+  </si>
+  <si>
+    <t>re.split</t>
+  </si>
+  <si>
+    <t>패턴을 기준으로 문자열을 분할합니다.</t>
+  </si>
+  <si>
+    <t>특정 패턴을 기준으로 문자열을 나누고 싶을 때 사용</t>
+  </si>
+  <si>
+    <t>re.split(r'\W+', 'Words, words, words.') # ['Words', 'words', 'words', '']</t>
+  </si>
+  <si>
+    <t>re.fullmatch</t>
+  </si>
+  <si>
+    <t>문자열 전체가 패턴과 일치하는지 확인합니다.</t>
+  </si>
+  <si>
+    <t>문자열 전체가 특정 패턴과 일치하는지 확인하고 싶을 때 사용</t>
+  </si>
+  <si>
+    <t>match = re.fullmatch(r'\d+', '12345') if match: print(match.group()) # '12345'</t>
+  </si>
+  <si>
+    <t>re.finditer</t>
+  </si>
+  <si>
+    <t>주어진 패턴과 일치하는 모든 부분 문자열을 찾고 이터레이터를 반환합니다.</t>
+  </si>
+  <si>
+    <t>패턴과 일치하는 모든 부분 문자열에 대해 반복 작업을 수행하고 싶을 때 사용</t>
+  </si>
+  <si>
+    <t>for match in re.finditer(r'\d+', 'There are 2 apples and 5 oranges'): print(match.group()) # '2', '5'</t>
+  </si>
+  <si>
+    <t>함수</t>
+  </si>
+  <si>
+    <t>함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 사례</t>
+  </si>
+  <si>
+    <t>예제 코드</t>
+  </si>
+  <si>
+    <t>패턴에 맞는 모든 문자열 찾기</t>
+  </si>
+  <si>
+    <t>패턴에 매치되는 모든 문자열을 리스트로 반환</t>
+  </si>
+  <si>
+    <t>python import re pattern = r'\d+' text = "There are 12 apples and 24 bananas" result = re.findall(pattern, text) print(result) # ['12', '24']</t>
+  </si>
+  <si>
+    <t>정규식 패턴을 미리 컴파일</t>
+  </si>
+  <si>
+    <t>자주 사용하는 패턴을 컴파일하여 여러 번 사용할 때 성능 향상</t>
+  </si>
+  <si>
+    <t>python import re pattern = re.compile(r'\d+') text = "There are 12 apples and 24 bananas" result = pattern.findall(text) print(result) # ['12', '24']</t>
+  </si>
+  <si>
+    <t>패턴에 맞는 문자열 치환</t>
+  </si>
+  <si>
+    <t>패턴에 매치되는 부분을 다른 문자열로 치환</t>
+  </si>
+  <si>
+    <t>python import re pattern = r'apples' replacement = 'oranges' text = "I like apples." result = re.sub(pattern, replacement, text) print(result) # "I like oranges."</t>
+  </si>
+  <si>
+    <t>패턴에 맞는 첫 번째 문자열 찾기</t>
+  </si>
+  <si>
+    <t>패턴에 매치되는 첫 번째 문자열을 찾고, 매치 객체 반환</t>
+  </si>
+  <si>
+    <t>python import re pattern = r'\d+' text = "There are 12 apples and 24 bananas" result = re.search(pattern, text) if result: print(result.group()) # '12'</t>
+  </si>
+  <si>
+    <t>문자열의 시작 부분이 패턴과 일치하는지 확인</t>
+  </si>
+  <si>
+    <t>문자열의 시작 부분이 패턴에 맞는지 확인</t>
+  </si>
+  <si>
+    <t>python import re pattern = r'\d+' text = "12 apples and 24 bananas" result = re.match(pattern, text) if result: print(result.group()) # '12'</t>
+  </si>
+  <si>
+    <t>패턴에 따라 문자열 분할</t>
+  </si>
+  <si>
+    <t>패턴에 맞는 부분을 기준으로 문자열을 분할하여 리스트 반환</t>
+  </si>
+  <si>
+    <t>python import re pattern = r'\s+' text = "Split this string by spaces" result = re.split(pattern, text) print(result) # ['Split', 'this', 'string', 'by', 'spaces']</t>
+  </si>
+  <si>
+    <t>문자열 전체가 패턴과 일치하는지 확인</t>
+  </si>
+  <si>
+    <t>문자열 전체가 패턴에 일치하는지 확인</t>
+  </si>
+  <si>
+    <t>python import re pattern = r'\d+' text = "12345" result = re.fullmatch(pattern, text) if result: print(result.group()) # '12345'</t>
+  </si>
+  <si>
+    <t>결과</t>
+  </si>
+  <si>
+    <t>re.findall(r'\d+', 'There are 2 apples and 5 oranges')</t>
+  </si>
+  <si>
+    <t>['2', '5']</t>
+  </si>
+  <si>
+    <t>pattern = re.compile(r'\d+') result = pattern.findall('There are 2 apples and 5 oranges')</t>
+  </si>
+  <si>
+    <t>re.sub(r'\d+', 'number', 'There are 2 apples and 5 oranges')</t>
+  </si>
+  <si>
+    <t>'There are number apples and number oranges'</t>
+  </si>
+  <si>
+    <t>match = re.search(r'\d+', 'There are 2 apples and 5 oranges') if match: print(match.group())</t>
+  </si>
+  <si>
+    <t>'2'</t>
+  </si>
+  <si>
+    <t>match = re.match(r'\d+', '2 apples and 5 oranges') if match: print(match.group())</t>
+  </si>
+  <si>
+    <t>re.split(r'\W+', 'Words, words, words.')</t>
+  </si>
+  <si>
+    <t>['Words', 'words', 'words', '']</t>
+  </si>
+  <si>
+    <t>match = re.fullmatch(r'\d+', '12345') if match: print(match.group())</t>
+  </si>
+  <si>
+    <t>'12345'</t>
+  </si>
+  <si>
+    <t>for match in re.finditer(r'\d+', 'There are 2 apples and 5 oranges'): print(match.group())</t>
+  </si>
+  <si>
+    <t>'2', '5'</t>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -919,7 +1150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,6 +1309,15 @@
       <charset val="129"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9.8000000000000007"/>
       <color theme="1"/>
       <name val="JetBrains Mono"/>
@@ -1098,8 +1338,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1150,8 +1396,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1340,8 +1603,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1357,8 +1635,17 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1584,7 +1871,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1602,11 +1889,26 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
+    <cellStyle name="40% - 강조색4" xfId="6" builtinId="43"/>
+    <cellStyle name="40% - 강조색6" xfId="7" builtinId="51"/>
     <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="메모" xfId="4" builtinId="10"/>
     <cellStyle name="보통" xfId="1" builtinId="28"/>
+    <cellStyle name="셀 확인" xfId="5" builtinId="23"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1647,7 +1949,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3175"/>
+                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3179"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4875,8 +5177,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>79001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5342,23 +5644,449 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="14" max="14" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50.625" customWidth="1"/>
+    <col min="16" max="16" width="63.25" customWidth="1"/>
+    <col min="17" max="17" width="50.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:17">
       <c r="B2" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:17" ht="18" thickTop="1" thickBot="1">
+      <c r="N4" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="O4" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q4" s="82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="17.25" thickTop="1">
+      <c r="N5" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="P5" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" s="81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="25.5">
+      <c r="N6" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="25.5">
+      <c r="N7" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="O7" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" s="81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="33">
+      <c r="N8" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="O8" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" s="81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="25.5">
+      <c r="N9" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="O9" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" s="81" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="N10" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="O10" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q10" s="81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="33">
+      <c r="N11" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="O11" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="P11" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q11" s="81" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="33">
+      <c r="N12" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="P12" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q12" s="81" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="67.625" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5" customWidth="1"/>
+    <col min="4" max="4" width="63.875" customWidth="1"/>
+    <col min="5" max="5" width="67" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="25.5">
+      <c r="B3" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="25.5">
+      <c r="B4" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="25.5">
+      <c r="B5" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="25.5">
+      <c r="B6" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="25.5">
+      <c r="B7" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="25.5">
+      <c r="B8" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="25.5">
+      <c r="B9" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="33">
+      <c r="B16" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="33">
+      <c r="B17" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="81" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="33">
+      <c r="B18" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="33">
+      <c r="B19" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="33">
+      <c r="B20" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="81" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="33">
+      <c r="B23" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="81" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5995,8 +6723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
+++ b/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="202">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -431,10 +431,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -467,14 +463,6 @@
   - 문법 동작 시 "" 있는 경우
   - 괄호안에 숫자가 들어가 있는 경우
   - 대입연산자 사용시 문자열 or 숫자가 들어가 있는 경우 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1) 함수 선언 확인
-  - 문자열 + "(" 규칙으로 함수 선언 확인
- 2) 선언된 함수 내(Body)에서 try, catch가 설정되었는지 확인
-   - 찾은 함수 내에서 ("{" ~ "}")함수 내에서 try, catch로 선언 되어 있는지 확인
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -577,10 +565,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Hold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -602,10 +586,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미진행</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -641,85 +621,6 @@
   <si>
     <t xml:space="preserve"> - while문 내 코드에서 '{}' 으로 분리하여 코드 저장
   : 중복 {}에 대한 코드는 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>적절한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">DP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>처리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>함수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1142,6 +1043,171 @@
     <t>Python</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>불가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 함수 선언 확인
+  - 문자열 + "(" 규칙으로 함수 선언 확인
+ 2) 선언된 함수 내(Body)에서 try, catch가 설정되었는지 확인
+   - 찾은 함수 내에서 ("{" ~ "}")함수 내에서 try, catch로 선언 되어 있는지 확인
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>규칙 1) 함수내 사용 코드
+규칙 2) Try, Catch가 설정되어 있는지 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>규칙 1) 함수내 사용 코드
+규칙 2) dp*함수 사용시 대입(=)연산자 사용 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">규칙 1) 함수 내 사용 코드 확인
+규칙 2) dpSet* 사용 함수에서 변수 이름 확인
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>규칙 3) 변수 이름에 어떤 값이 대입되어 있는지 확인</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>적절한 DP 처리 함수 사용</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>규칙 1) 함수 내 사용 코드
+규칙 2) [패턴] dp*Connect 함수 호출하는 코드 확인
+규칙 3) Callback 호출 함수 이름 확인
+규칙 4) Callback 호출 함수에서 delay 코드 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하드 코딩 지양</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Try, Catch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>예외처리</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">함수 예외 처리 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Raima DB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>증가 방지</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쿼리 바인딩  처리</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스크립트 동작 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Active 감시 적용</t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1150,7 +1216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1302,13 +1368,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -1344,8 +1403,25 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1387,11 +1463,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1414,7 +1485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1558,21 +1629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1619,7 +1675,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1632,20 +1688,17 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1770,9 +1823,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1787,8 +1837,8 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1796,9 +1846,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1817,31 +1864,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1850,6 +1879,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="13" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1871,44 +1918,40 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="40% - 강조색4" xfId="6" builtinId="43"/>
-    <cellStyle name="40% - 강조색6" xfId="7" builtinId="51"/>
+  <cellStyles count="7">
+    <cellStyle name="40% - 강조색4" xfId="5" builtinId="43"/>
+    <cellStyle name="40% - 강조색6" xfId="6" builtinId="51"/>
     <cellStyle name="나쁨" xfId="3" builtinId="27"/>
-    <cellStyle name="메모" xfId="4" builtinId="10"/>
     <cellStyle name="보통" xfId="1" builtinId="28"/>
-    <cellStyle name="셀 확인" xfId="5" builtinId="23"/>
+    <cellStyle name="셀 확인" xfId="4" builtinId="23"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1949,7 +1992,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3179"/>
+                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3185"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5486,66 +5529,66 @@
   <sheetData>
     <row r="1" spans="2:20" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B2" s="48">
+      <c r="B2" s="46">
         <v>45481</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="47">
         <v>45482</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="47">
         <v>45483</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="47">
         <v>45484</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="48">
         <v>45485</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="46">
         <v>45488</v>
       </c>
-      <c r="H2" s="49">
+      <c r="H2" s="47">
         <v>45489</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="47">
         <v>45490</v>
       </c>
-      <c r="J2" s="49">
+      <c r="J2" s="47">
         <v>45491</v>
       </c>
-      <c r="K2" s="50">
+      <c r="K2" s="48">
         <v>45492</v>
       </c>
-      <c r="L2" s="48">
+      <c r="L2" s="46">
         <v>45495</v>
       </c>
-      <c r="M2" s="49">
+      <c r="M2" s="47">
         <v>45496</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="47">
         <v>45497</v>
       </c>
-      <c r="O2" s="49">
+      <c r="O2" s="47">
         <v>45498</v>
       </c>
-      <c r="P2" s="50">
+      <c r="P2" s="48">
         <v>45499</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="68">
+      <c r="B3" s="66">
         <v>1</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
-      <c r="G3" s="51"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
       <c r="K3" s="32"/>
-      <c r="L3" s="51"/>
+      <c r="L3" s="49"/>
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
@@ -5558,10 +5601,10 @@
       <c r="E4" s="38">
         <v>2</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="53">
         <v>3</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="50">
         <v>4</v>
       </c>
       <c r="H4" s="28"/>
@@ -5579,8 +5622,8 @@
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="52">
+      <c r="F5" s="54"/>
+      <c r="G5" s="50">
         <v>5</v>
       </c>
       <c r="H5" s="38">
@@ -5589,10 +5632,10 @@
       <c r="I5" s="38">
         <v>8</v>
       </c>
-      <c r="J5" s="70">
+      <c r="J5" s="68">
         <v>9</v>
       </c>
-      <c r="K5" s="71"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="33"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
@@ -5607,13 +5650,13 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="53"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="35"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54">
+      <c r="K6" s="51"/>
+      <c r="L6" s="52">
         <v>11</v>
       </c>
       <c r="M6" s="36">
@@ -5660,134 +5703,134 @@
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:17" ht="18" thickTop="1" thickBot="1">
-      <c r="N4" s="82" t="s">
-        <v>152</v>
-      </c>
-      <c r="O4" s="82" t="s">
+      <c r="N4" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="O4" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" s="63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="17.25" thickTop="1">
+      <c r="N5" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="Q5" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="Q4" s="82" t="s">
+    </row>
+    <row r="6" spans="2:17" ht="25.5">
+      <c r="N6" s="62" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" ht="17.25" thickTop="1">
-      <c r="N5" s="81" t="s">
+      <c r="O6" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="O5" s="66" t="s">
+      <c r="P6" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="P5" s="66" t="s">
+      <c r="Q6" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="Q5" s="81" t="s">
+    </row>
+    <row r="7" spans="2:17" ht="25.5">
+      <c r="N7" s="62" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" spans="2:17" ht="25.5">
-      <c r="N6" s="81" t="s">
+      <c r="O7" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="O6" s="66" t="s">
+      <c r="P7" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="Q7" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="Q6" s="81" t="s">
+    </row>
+    <row r="8" spans="2:17" ht="25.5">
+      <c r="N8" s="62" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" ht="25.5">
-      <c r="N7" s="81" t="s">
+      <c r="O8" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="O7" s="66" t="s">
+      <c r="P8" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="P7" s="66" t="s">
+      <c r="Q8" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="Q7" s="81" t="s">
+    </row>
+    <row r="9" spans="2:17" ht="25.5">
+      <c r="N9" s="62" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="2:17" ht="33">
-      <c r="N8" s="81" t="s">
+      <c r="O9" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="O8" s="66" t="s">
+      <c r="P9" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="P8" s="66" t="s">
+      <c r="Q9" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="Q8" s="81" t="s">
+    </row>
+    <row r="10" spans="2:17">
+      <c r="N10" s="62" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" ht="25.5">
-      <c r="N9" s="81" t="s">
+      <c r="O10" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="O9" s="66" t="s">
+      <c r="P10" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="P9" s="66" t="s">
+      <c r="Q10" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="Q9" s="81" t="s">
+    </row>
+    <row r="11" spans="2:17" ht="25.5">
+      <c r="N11" s="62" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="N10" s="81" t="s">
+      <c r="O11" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="O10" s="66" t="s">
+      <c r="P11" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="P10" s="66" t="s">
+      <c r="Q11" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="Q10" s="81" t="s">
+    </row>
+    <row r="12" spans="2:17" ht="33">
+      <c r="N12" s="62" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" ht="33">
-      <c r="N11" s="81" t="s">
+      <c r="O12" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="O11" s="66" t="s">
+      <c r="P12" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="P11" s="66" t="s">
+      <c r="Q12" s="62" t="s">
         <v>145</v>
-      </c>
-      <c r="Q11" s="81" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="33">
-      <c r="N12" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="O12" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="P12" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q12" s="81" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5816,277 +5859,278 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="25.5">
+      <c r="B3" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="E3" s="62" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="25.5">
+      <c r="B4" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D4" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="25.5">
+      <c r="B5" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="25.5">
+      <c r="B6" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="25.5">
+      <c r="B7" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="25.5">
+      <c r="B8" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="25.5">
+      <c r="B9" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="83" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="25.5">
-      <c r="B3" s="67" t="s">
+      <c r="E16" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="25.5">
-      <c r="B4" s="67" t="s">
+      <c r="D17" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="25.5">
-      <c r="B5" s="67" t="s">
+      <c r="D18" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="25.5">
-      <c r="B6" s="67" t="s">
+      <c r="D19" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="81" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="25.5">
-      <c r="B7" s="67" t="s">
+      <c r="D20" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="81" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="25.5">
-      <c r="B8" s="67" t="s">
+      <c r="D21" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="81" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="25.5">
-      <c r="B9" s="67" t="s">
+      <c r="D22" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="33">
+      <c r="B23" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="81" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="84" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="33">
-      <c r="B16" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="81" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" s="81" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="33">
-      <c r="B17" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="81" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="81" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="33">
-      <c r="B18" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="81" t="s">
-        <v>180</v>
-      </c>
-      <c r="F18" s="81" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="33">
-      <c r="B19" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="F19" s="81" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="33">
-      <c r="B20" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="81" t="s">
+      <c r="D23" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="81" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="81" t="s">
+      <c r="F23" s="62" t="s">
         <v>185</v>
-      </c>
-      <c r="F21" s="81" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22" s="81" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="33">
-      <c r="B23" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" s="81" t="s">
-        <v>189</v>
-      </c>
-      <c r="F23" s="81" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6406,7 +6450,7 @@
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="71" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -6426,7 +6470,7 @@
       <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="73"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
@@ -6444,7 +6488,7 @@
       <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="73"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="12" t="s">
         <v>45</v>
       </c>
@@ -6462,7 +6506,7 @@
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="73"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
@@ -6480,7 +6524,7 @@
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="73"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
@@ -6498,7 +6542,7 @@
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="14" t="s">
         <v>44</v>
       </c>
@@ -6516,7 +6560,7 @@
       <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="70" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -6536,7 +6580,7 @@
       <c r="B10" s="26">
         <v>8</v>
       </c>
-      <c r="C10" s="73"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
@@ -6554,7 +6598,7 @@
       <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
@@ -6572,7 +6616,7 @@
       <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="14" t="s">
         <v>21</v>
       </c>
@@ -6590,7 +6634,7 @@
       <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="70" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -6608,7 +6652,7 @@
       <c r="B14" s="26">
         <v>12</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
@@ -6626,7 +6670,7 @@
       <c r="B15" s="26">
         <v>13</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
@@ -6644,7 +6688,7 @@
       <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="C16" s="73"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
@@ -6662,7 +6706,7 @@
       <c r="B17" s="26">
         <v>15</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="9" t="s">
         <v>15</v>
       </c>
@@ -6680,7 +6724,7 @@
       <c r="B18" s="26">
         <v>16</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="18" t="s">
         <v>14</v>
       </c>
@@ -6721,10 +6765,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H44"/>
+  <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:G38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6732,8 +6776,8 @@
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="42" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="41" customWidth="1"/>
     <col min="7" max="7" width="70.25" customWidth="1"/>
     <col min="8" max="8" width="49.125" customWidth="1"/>
   </cols>
@@ -6749,10 +6793,10 @@
       <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="43"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="39" t="s">
         <v>49</v>
       </c>
@@ -6764,16 +6808,16 @@
       <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="71" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
@@ -6785,14 +6829,14 @@
       <c r="B5" s="26">
         <v>2</v>
       </c>
-      <c r="C5" s="73"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="44"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="4" t="s">
         <v>30</v>
       </c>
@@ -6804,14 +6848,14 @@
       <c r="B6" s="26">
         <v>3</v>
       </c>
-      <c r="C6" s="73"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="44"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="4" t="s">
         <v>31</v>
       </c>
@@ -6823,14 +6867,14 @@
       <c r="B7" s="26">
         <v>4</v>
       </c>
-      <c r="C7" s="73"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="44"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="4" t="s">
         <v>28</v>
       </c>
@@ -6842,14 +6886,14 @@
       <c r="B8" s="26">
         <v>5</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
@@ -6861,7 +6905,7 @@
       <c r="B9" s="26">
         <v>6</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="14" t="s">
         <v>44</v>
       </c>
@@ -6880,16 +6924,16 @@
       <c r="B10" s="26">
         <v>7</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="70" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="11" t="s">
         <v>18</v>
       </c>
@@ -6901,14 +6945,14 @@
       <c r="B11" s="26">
         <v>8</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
@@ -6920,14 +6964,14 @@
       <c r="B12" s="26">
         <v>9</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="4" t="s">
         <v>23</v>
       </c>
@@ -6939,14 +6983,14 @@
       <c r="B13" s="26">
         <v>10</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="46"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="16" t="s">
         <v>0</v>
       </c>
@@ -6958,16 +7002,16 @@
       <c r="B14" s="26">
         <v>11</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="70" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="8"/>
       <c r="H14" s="27" t="s">
         <v>34</v>
@@ -6977,14 +7021,14 @@
       <c r="B15" s="26">
         <v>12</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="44"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="4" t="s">
         <v>42</v>
       </c>
@@ -6996,14 +7040,14 @@
       <c r="B16" s="26">
         <v>13</v>
       </c>
-      <c r="C16" s="73"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="4" t="s">
         <v>12</v>
       </c>
@@ -7015,14 +7059,14 @@
       <c r="B17" s="26">
         <v>14</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="4" t="s">
         <v>51</v>
       </c>
@@ -7034,14 +7078,14 @@
       <c r="B18" s="26">
         <v>15</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="4" t="s">
         <v>48</v>
       </c>
@@ -7053,248 +7097,292 @@
       <c r="B19" s="26">
         <v>16</v>
       </c>
-      <c r="C19" s="74"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="46"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="20"/>
       <c r="H19" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="E22" s="42" t="s">
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="H22" t="s">
+      <c r="F22" s="78"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="280.5">
+      <c r="B23" s="59">
+        <v>1</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="59"/>
+    </row>
+    <row r="24" spans="2:8" ht="33">
+      <c r="B24" s="59">
+        <v>2</v>
+      </c>
+      <c r="C24" s="59"/>
+      <c r="D24" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="59"/>
+    </row>
+    <row r="25" spans="2:8" ht="132">
+      <c r="B25" s="59">
+        <v>3</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="74" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" ht="280.5">
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="42" t="s">
+      <c r="H25" s="58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="115.5">
+      <c r="B26" s="59">
+        <v>4</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F26" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="H26" s="58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="33">
+      <c r="B27" s="59">
+        <v>5</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="49.5">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="79" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="49.5">
+      <c r="B29" s="59">
+        <v>7</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="66" customHeight="1">
+      <c r="B30" s="59">
+        <v>8</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="66">
+      <c r="B31" s="59">
+        <v>9</v>
+      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="66">
+      <c r="B32" s="59">
+        <v>10</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="79" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="59">
+        <v>11</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="59"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="59">
+        <v>12</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="59"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="59">
+        <v>13</v>
+      </c>
+      <c r="C35" s="59"/>
+      <c r="D35" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="33">
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="132">
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="115.5">
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="32" spans="2:8" ht="49.5">
-      <c r="D32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="49.5">
-      <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="D34" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="79" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="66" customHeight="1">
-      <c r="C36">
-        <v>8</v>
-      </c>
-      <c r="D36" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" ht="49.5">
-      <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="D38" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" ht="66">
-      <c r="C40">
-        <v>10</v>
-      </c>
-      <c r="D40" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8">
-      <c r="D42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="G42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8">
-      <c r="D43" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8">
-      <c r="D44" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" t="s">
-        <v>84</v>
-      </c>
+      <c r="H35" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7319,13 +7407,13 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="9" spans="7:7">
-      <c r="G9" s="75" t="s">
-        <v>107</v>
+      <c r="G9" s="60" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="75" t="s">
-        <v>108</v>
+      <c r="G13" s="60" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -7354,20 +7442,20 @@
       <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>69</v>
+      <c r="C2" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -7394,32 +7482,32 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7445,88 +7533,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>71</v>
+      <c r="B2" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>95</v>
+      <c r="C3" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="67"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="33">
+      <c r="B5" s="59"/>
+      <c r="C5" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="33">
-      <c r="B5" s="67"/>
-      <c r="C5" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="67"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="67" t="s">
-        <v>100</v>
+      <c r="C7" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
+++ b/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1_7월 개발일정" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,16 @@
     <sheet name="3_코드리뷰점검Tool_항목" sheetId="3" r:id="rId3"/>
     <sheet name="4_UI 설계" sheetId="4" r:id="rId4"/>
     <sheet name="5_기능 개발" sheetId="6" r:id="rId5"/>
-    <sheet name="6_기능별 Flow Chart" sheetId="10" r:id="rId6"/>
-    <sheet name="코드리뷰점검결과_DataFrame_구조" sheetId="7" r:id="rId7"/>
-    <sheet name="6_사용하는 정규식" sheetId="8" r:id="rId8"/>
-    <sheet name="7. 기능 구현 방식" sheetId="9" r:id="rId9"/>
-    <sheet name="개발 참고" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="13" r:id="rId11"/>
+    <sheet name="6_Loop문내 처리조건 Flow Chart" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId7"/>
+    <sheet name="코드리뷰점검결과_DataFrame_구조" sheetId="7" r:id="rId8"/>
+    <sheet name="6_사용하는 정규식" sheetId="8" r:id="rId9"/>
+    <sheet name="7. 기능 구현 방식" sheetId="9" r:id="rId10"/>
+    <sheet name="개발 참고" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'7. 기능 구현 방식'!$A$1:$Q$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'7. 기능 구현 방식'!$A$1:$Q$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="208">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -477,38 +478,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">규칙 1) 함수내 사용 코드
-규칙 2) DebugTN, Log 함수에서 사용은 제외
-규칙 3) NG 조건
-    : 괄호 안에 상수 들어가는 경우
-    : ""문자열을 사용 하는 경우
-    : 대입연산자 우항에 들어오는 경우
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1) 전역 변수, 함수 이름 체크 기능 구현
-   - 전역 변수 정의 확인
-   - 함수와 함수 Body 분리
-  3) 함수 호출 확인 
-   : 함수 호출되었는지 확인 -&gt; thread로 호출, Callback함수로 호출, 실제 호출
-     -&gt; StartThread 호출시 "" 사용 포함
-     -&gt; Query, Connect 호출시 ""사용 포함
-     -&gt; 일반 호출 : 함수이름(); 사용 확인
-   : 
- 코드에서 자료형 &amp; 세미콜론 ";" 으로 구분하여 변수 찾기 
-   : 전역 변수와 선언된 함수가 미사용 되었는지 확인 -&gt; NG
- 2) 함수내에서 지역 변수 선언 확인
-   : 함수에서 지역 변수가 미사용 된 경우 확인 -&gt; NG
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -582,10 +556,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 1) while문 내에 "delay(" 가 동작하는지 확인 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -632,12 +602,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - Body 코드에 Delay 있는 경우 체크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1) 반복문 내에 dpGet, dpSet이 확인 -&gt; NG
-   - for문 내에 호출 함수 확인
- 2) dpGet 연속 동작 확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1044,10 +1008,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>불가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1) 함수 선언 확인
   - 문자열 + "(" 규칙으로 함수 선언 확인
  2) 선언된 함수 내(Body)에서 try, catch가 설정되었는지 확인
@@ -1206,6 +1166,64 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 전역 변수 찾기
+ - 함수 코드에서 미사용된 경우 NG 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 버전 관리에 대한 변수가 미선언된 경우 NG 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">규칙 1) 함수내 사용 코드
+규칙 2) DebugTN, Log 함수에서 사용은 제외
+규칙 3) NG 조건
+    : 괄호 안에 상수 들어가는 경우
+    : ""문자열을 사용 하는 경우
+    : 대입연산자 우항에 들어오는 경우
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 반복문(for)문 내 dpGet, dpSet 호출되는 경우 NG 처리
+ - dpGet 연속 동작으로 처리된 경우 NG 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 전역 변수, 함수 이름 체크 기능 구현
+   - 전역 변수 정의 확인
+   - 함수와 함수 Body 분리
+ 2) 함수내에서 지역 변수 선언 확인
+   : 함수에서 지역 변수가 미사용 된 경우 확인 -&gt; NG
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 반복문 내에 dpGet, dpSet이 확인 -&gt; NG
+   - for문 내에 호출 함수 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - dpSet 처리 선행 조건에 Actvie 처리가 있는지 체크</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1897,6 +1915,33 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1917,33 +1962,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1992,7 +2010,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3185"/>
+                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3192"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5205,6 +5223,49 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>440571</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>147476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>513521</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>17052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8690049" y="561606"/>
+          <a:ext cx="4197689" cy="1733163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5576,11 +5637,11 @@
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="66">
+      <c r="B3" s="75">
         <v>1</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
       <c r="G3" s="49"/>
@@ -5632,10 +5693,10 @@
       <c r="I5" s="38">
         <v>8</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="77">
         <v>9</v>
       </c>
-      <c r="K5" s="69"/>
+      <c r="K5" s="78"/>
       <c r="L5" s="33"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
@@ -5686,6 +5747,112 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="38.375" customWidth="1"/>
+    <col min="3" max="3" width="46.375" customWidth="1"/>
+    <col min="4" max="4" width="87.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="33">
+      <c r="B5" s="59"/>
+      <c r="C5" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="59"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q12"/>
   <sheetViews>
@@ -5703,134 +5870,134 @@
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:17" ht="18" thickTop="1" thickBot="1">
       <c r="N4" s="63" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O4" s="63" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P4" s="63" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="63" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="17.25" thickTop="1">
       <c r="N5" s="62" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O5" s="58" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P5" s="58" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="62" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="25.5">
       <c r="N6" s="62" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O6" s="58" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P6" s="58" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="62" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="25.5">
       <c r="N7" s="62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O7" s="58" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P7" s="58" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="62" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="25.5">
       <c r="N8" s="62" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O8" s="58" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P8" s="58" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="62" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="25.5">
       <c r="N9" s="62" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O9" s="58" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P9" s="58" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q9" s="62" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="2:17">
       <c r="N10" s="62" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O10" s="58" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P10" s="58" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="25.5">
       <c r="N11" s="62" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O11" s="58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P11" s="58" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="62" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="33">
       <c r="N12" s="62" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O12" s="58" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P12" s="58" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q12" s="62" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5840,7 +6007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F23"/>
   <sheetViews>
@@ -5859,272 +6026,272 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="64" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D2" s="64" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="25.5">
       <c r="B3" s="59" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="25.5">
       <c r="B4" s="59" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="25.5">
       <c r="B5" s="59" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="25.5">
       <c r="B6" s="59" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="25.5">
       <c r="B7" s="59" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="25.5">
       <c r="B8" s="59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="25.5">
       <c r="B9" s="59" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="65" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="59" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F16" s="62" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="59" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F17" s="62" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="59" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F18" s="62" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="59" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F19" s="62" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="59" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F21" s="62" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="59" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="33">
       <c r="B23" s="59" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F23" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6450,7 +6617,7 @@
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="80" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -6470,7 +6637,7 @@
       <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
@@ -6488,7 +6655,7 @@
       <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="71"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="12" t="s">
         <v>45</v>
       </c>
@@ -6506,7 +6673,7 @@
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="71"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
@@ -6524,7 +6691,7 @@
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
@@ -6542,7 +6709,7 @@
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="72"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="14" t="s">
         <v>44</v>
       </c>
@@ -6560,7 +6727,7 @@
       <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="79" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -6580,7 +6747,7 @@
       <c r="B10" s="26">
         <v>8</v>
       </c>
-      <c r="C10" s="71"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
@@ -6598,7 +6765,7 @@
       <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="71"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
@@ -6616,7 +6783,7 @@
       <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="14" t="s">
         <v>21</v>
       </c>
@@ -6634,7 +6801,7 @@
       <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="79" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -6652,7 +6819,7 @@
       <c r="B14" s="26">
         <v>12</v>
       </c>
-      <c r="C14" s="71"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
@@ -6670,7 +6837,7 @@
       <c r="B15" s="26">
         <v>13</v>
       </c>
-      <c r="C15" s="71"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
@@ -6688,7 +6855,7 @@
       <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="C16" s="71"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
@@ -6706,7 +6873,7 @@
       <c r="B17" s="26">
         <v>15</v>
       </c>
-      <c r="C17" s="71"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="9" t="s">
         <v>15</v>
       </c>
@@ -6724,7 +6891,7 @@
       <c r="B18" s="26">
         <v>16</v>
       </c>
-      <c r="C18" s="72"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="18" t="s">
         <v>14</v>
       </c>
@@ -6767,8 +6934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6808,7 +6975,7 @@
       <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="80" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -6829,7 +6996,7 @@
       <c r="B5" s="26">
         <v>2</v>
       </c>
-      <c r="C5" s="71"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="12" t="s">
         <v>29</v>
       </c>
@@ -6848,7 +7015,7 @@
       <c r="B6" s="26">
         <v>3</v>
       </c>
-      <c r="C6" s="71"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="12" t="s">
         <v>45</v>
       </c>
@@ -6867,7 +7034,7 @@
       <c r="B7" s="26">
         <v>4</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
@@ -6886,7 +7053,7 @@
       <c r="B8" s="26">
         <v>5</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
@@ -6905,12 +7072,12 @@
       <c r="B9" s="26">
         <v>6</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16" t="s">
@@ -6924,14 +7091,14 @@
       <c r="B10" s="26">
         <v>7</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="79" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="11" t="s">
@@ -6945,12 +7112,12 @@
       <c r="B11" s="26">
         <v>8</v>
       </c>
-      <c r="C11" s="71"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
@@ -6964,12 +7131,12 @@
       <c r="B12" s="26">
         <v>9</v>
       </c>
-      <c r="C12" s="71"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="4" t="s">
@@ -6983,7 +7150,7 @@
       <c r="B13" s="26">
         <v>10</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="14" t="s">
         <v>21</v>
       </c>
@@ -6998,21 +7165,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="23.25">
+    <row r="14" spans="2:8">
       <c r="B14" s="26">
         <v>11</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="79" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="F14" s="44"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="H14" s="27" t="s">
         <v>34</v>
       </c>
@@ -7021,7 +7190,7 @@
       <c r="B15" s="26">
         <v>12</v>
       </c>
-      <c r="C15" s="71"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
@@ -7040,7 +7209,7 @@
       <c r="B16" s="26">
         <v>13</v>
       </c>
-      <c r="C16" s="71"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
@@ -7059,7 +7228,7 @@
       <c r="B17" s="26">
         <v>14</v>
       </c>
-      <c r="C17" s="71"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
@@ -7078,7 +7247,7 @@
       <c r="B18" s="26">
         <v>15</v>
       </c>
-      <c r="C18" s="71"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="9" t="s">
         <v>15</v>
       </c>
@@ -7097,7 +7266,7 @@
       <c r="B19" s="26">
         <v>16</v>
       </c>
-      <c r="C19" s="72"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="18" t="s">
         <v>14</v>
       </c>
@@ -7111,36 +7280,38 @@
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78" t="s">
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77" t="s">
+      <c r="F22" s="71"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="280.5">
+    <row r="23" spans="2:8" ht="115.5">
       <c r="B23" s="59">
         <v>1</v>
       </c>
       <c r="C23" s="59"/>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="F23" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="59"/>
+      <c r="G23" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="58" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="24" spans="2:8" ht="33">
       <c r="B24" s="59">
@@ -7150,16 +7321,18 @@
       <c r="D24" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="75" t="s">
+      <c r="E24" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="74" t="s">
+      <c r="F24" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="59"/>
+      <c r="H24" s="59" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="25" spans="2:8" ht="132">
       <c r="B25" s="59">
@@ -7167,19 +7340,19 @@
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="74" t="s">
+      <c r="F25" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="67" t="s">
         <v>59</v>
       </c>
       <c r="H25" s="58" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="115.5">
@@ -7188,19 +7361,19 @@
       </c>
       <c r="C26" s="59"/>
       <c r="D26" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="74" t="s">
-        <v>188</v>
+      <c r="F26" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="67" t="s">
+        <v>183</v>
       </c>
       <c r="H26" s="58" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="33">
@@ -7209,38 +7382,38 @@
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="74" t="s">
-        <v>82</v>
+      <c r="F27" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="67" t="s">
+        <v>80</v>
       </c>
       <c r="H27" s="58" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="49.5">
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
-      <c r="D28" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="E28" s="80" t="s">
+      <c r="D28" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="73" t="s">
-        <v>68</v>
+      <c r="F28" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="66" t="s">
+        <v>66</v>
       </c>
       <c r="H28" s="58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="49.5">
@@ -7249,19 +7422,19 @@
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="76" t="s">
+      <c r="F29" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="58" t="s">
         <v>83</v>
-      </c>
-      <c r="H29" s="58" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="66" customHeight="1">
@@ -7270,19 +7443,19 @@
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="59" t="s">
-        <v>84</v>
+      <c r="F30" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="H30" s="58" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="66">
@@ -7291,19 +7464,19 @@
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="E31" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="75" t="s">
-        <v>193</v>
-      </c>
-      <c r="G31" s="74" t="s">
-        <v>109</v>
+      <c r="F31" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" s="67" t="s">
+        <v>105</v>
       </c>
       <c r="H31" s="58" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="66">
@@ -7311,20 +7484,20 @@
         <v>10</v>
       </c>
       <c r="C32" s="59"/>
-      <c r="D32" s="79" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" s="80" t="s">
+      <c r="D32" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="73" t="s">
+      <c r="F32" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="66" t="s">
         <v>61</v>
       </c>
       <c r="H32" s="58" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="2:8">
@@ -7332,17 +7505,17 @@
         <v>11</v>
       </c>
       <c r="C33" s="59"/>
-      <c r="D33" s="79" t="s">
-        <v>199</v>
-      </c>
-      <c r="E33" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="G33" s="81" t="s">
-        <v>79</v>
+      <c r="D33" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="74" t="s">
+        <v>77</v>
       </c>
       <c r="H33" s="59"/>
     </row>
@@ -7351,17 +7524,17 @@
         <v>12</v>
       </c>
       <c r="C34" s="59"/>
-      <c r="D34" s="79" t="s">
+      <c r="D34" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="81" t="s">
-        <v>80</v>
+      <c r="E34" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="74" t="s">
+        <v>78</v>
       </c>
       <c r="H34" s="59"/>
     </row>
@@ -7370,17 +7543,17 @@
         <v>13</v>
       </c>
       <c r="C35" s="59"/>
-      <c r="D35" s="79" t="s">
+      <c r="D35" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" s="81" t="s">
-        <v>81</v>
+      <c r="E35" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="74" t="s">
+        <v>79</v>
       </c>
       <c r="H35" s="59"/>
     </row>
@@ -7401,19 +7574,19 @@
   <dimension ref="G9:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="9" spans="7:7">
       <c r="G9" s="60" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="7:7">
       <c r="G13" s="60" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -7424,6 +7597,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G2"/>
   <sheetViews>
@@ -7443,19 +7629,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -7465,7 +7651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C4"/>
   <sheetViews>
@@ -7482,32 +7668,32 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
         <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -7515,110 +7701,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="38.375" customWidth="1"/>
-    <col min="3" max="3" width="46.375" customWidth="1"/>
-    <col min="4" max="4" width="87.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="33">
-      <c r="B5" s="59"/>
-      <c r="C5" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="59"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="37" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
+++ b/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1_7월 개발일정" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="209">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1219,11 +1219,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> - dpSet 처리 선행 조건에 Actvie 처리가 있는지 체크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - dpSet 함수 호출 시 alert_hdl 문자열이 포함되는지 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - dpSet 처리 선행 조건에 Actvie 처리가 있는지 체크</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2010,7 +2014,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3192"/>
+                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3195"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6935,7 +6939,7 @@
   <dimension ref="B2:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7039,7 +7043,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F7" s="43"/>
       <c r="G7" s="4" t="s">
@@ -7176,11 +7180,11 @@
         <v>7</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F14" s="44"/>
       <c r="G14" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H14" s="27" t="s">
         <v>34</v>
@@ -7195,7 +7199,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="4" t="s">
@@ -7233,7 +7237,7 @@
         <v>39</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="4" t="s">
@@ -7252,11 +7256,11 @@
         <v>15</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="4" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>37</v>

--- a/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
+++ b/CodeReviewTool/doc/코드리뷰점검Tool_7월개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1_7월 개발일정" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,17 @@
     <sheet name="3_코드리뷰점검Tool_항목" sheetId="3" r:id="rId3"/>
     <sheet name="4_UI 설계" sheetId="4" r:id="rId4"/>
     <sheet name="5_기능 개발" sheetId="6" r:id="rId5"/>
-    <sheet name="6_Loop문내 처리조건 Flow Chart" sheetId="10" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId7"/>
-    <sheet name="코드리뷰점검결과_DataFrame_구조" sheetId="7" r:id="rId8"/>
-    <sheet name="6_사용하는 정규식" sheetId="8" r:id="rId9"/>
-    <sheet name="7. 기능 구현 방식" sheetId="9" r:id="rId10"/>
-    <sheet name="개발 참고" sheetId="12" r:id="rId11"/>
-    <sheet name="Sheet3" sheetId="13" r:id="rId12"/>
+    <sheet name="6_점검항목_정규식동작순서" sheetId="15" r:id="rId6"/>
+    <sheet name="6_Loop문내 처리조건 Flow Chart" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
+    <sheet name="코드리뷰점검결과_DataFrame_구조" sheetId="7" r:id="rId9"/>
+    <sheet name="6_사용하는 정규식" sheetId="8" r:id="rId10"/>
+    <sheet name="7. 기능 구현 방식" sheetId="9" r:id="rId11"/>
+    <sheet name="개발 참고" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'7. 기능 구현 방식'!$A$1:$Q$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'7. 기능 구현 방식'!$A$1:$Q$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="237">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1230,6 +1231,119 @@
     <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Loop문 내 처리 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 함수 코드에서 while문 코드 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 함수에서 블록문 위치 끝나는 위치 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> delay 호출되는지 확인
+  - delay*); 패턴 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_check_while_delay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_check_while_delay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_while_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>while\s*\([^)]*\)\s*{</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(\b\w+\b)\s*\{</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay.*\)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 교환 횟수 최소화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(dp[A-Z]\w*\()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(for\s*\(.*?\)\s*\{[^}]*\})</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 함수 코드에서 for문 코드 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> for문 코드에서 dp*함수 연속 처리 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loop_pattern_check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loop_pattern_check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적절한 DP 처리 함수 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp\w*Connect\w*\s*\(\s*[\s\S]*?\s*\)\s*;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp*Connect로 호출되는 Callback 함수 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay\s*\(.*?\)\s*;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Callback 함수내에 delay 코드 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP 함수 예외 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp* 함수로 처리된 코드 차기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(?&lt;!\S=)\bdp[A-Z][a-zA-Z0-9_]*\([^)]*\)(?!\s*[\!=])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1238,7 +1352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,8 +1556,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12.8"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1504,6 +1624,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1720,7 +1846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1945,6 +2071,18 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2014,7 +2152,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3195"/>
+                  <a14:cameraTool cellRange="'3_코드리뷰점검Tool_항목'!$B$2:$G$18" spid="_x0000_s3209"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5641,11 +5779,11 @@
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="75">
+      <c r="B3" s="79">
         <v>1</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
       <c r="G3" s="49"/>
@@ -5697,10 +5835,10 @@
       <c r="I5" s="38">
         <v>8</v>
       </c>
-      <c r="J5" s="77">
+      <c r="J5" s="81">
         <v>9</v>
       </c>
-      <c r="K5" s="78"/>
+      <c r="K5" s="82"/>
       <c r="L5" s="33"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
@@ -5751,6 +5889,58 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="42.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D13"/>
   <sheetViews>
@@ -5856,7 +6046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q12"/>
   <sheetViews>
@@ -6011,7 +6201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F23"/>
   <sheetViews>
@@ -6582,7 +6772,7 @@
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46" defaultRowHeight="16.5"/>
@@ -6621,7 +6811,7 @@
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="84" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -6641,7 +6831,7 @@
       <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
@@ -6659,7 +6849,7 @@
       <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="80"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="12" t="s">
         <v>45</v>
       </c>
@@ -6677,7 +6867,7 @@
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
@@ -6695,7 +6885,7 @@
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
@@ -6713,7 +6903,7 @@
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="81"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="14" t="s">
         <v>44</v>
       </c>
@@ -6731,7 +6921,7 @@
       <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="83" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -6751,7 +6941,7 @@
       <c r="B10" s="26">
         <v>8</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
@@ -6769,7 +6959,7 @@
       <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="80"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
@@ -6787,7 +6977,7 @@
       <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="C12" s="81"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="14" t="s">
         <v>21</v>
       </c>
@@ -6805,7 +6995,7 @@
       <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="83" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -6823,7 +7013,7 @@
       <c r="B14" s="26">
         <v>12</v>
       </c>
-      <c r="C14" s="80"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
@@ -6841,7 +7031,7 @@
       <c r="B15" s="26">
         <v>13</v>
       </c>
-      <c r="C15" s="80"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
@@ -6859,7 +7049,7 @@
       <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="C16" s="80"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
@@ -6877,7 +7067,7 @@
       <c r="B17" s="26">
         <v>15</v>
       </c>
-      <c r="C17" s="80"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="9" t="s">
         <v>15</v>
       </c>
@@ -6895,7 +7085,7 @@
       <c r="B18" s="26">
         <v>16</v>
       </c>
-      <c r="C18" s="81"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="18" t="s">
         <v>14</v>
       </c>
@@ -6938,7 +7128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -6979,7 +7169,7 @@
       <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="84" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -7000,7 +7190,7 @@
       <c r="B5" s="26">
         <v>2</v>
       </c>
-      <c r="C5" s="80"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="12" t="s">
         <v>29</v>
       </c>
@@ -7019,7 +7209,7 @@
       <c r="B6" s="26">
         <v>3</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="12" t="s">
         <v>45</v>
       </c>
@@ -7038,7 +7228,7 @@
       <c r="B7" s="26">
         <v>4</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
@@ -7057,7 +7247,7 @@
       <c r="B8" s="26">
         <v>5</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
@@ -7076,7 +7266,7 @@
       <c r="B9" s="26">
         <v>6</v>
       </c>
-      <c r="C9" s="81"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="14" t="s">
         <v>44</v>
       </c>
@@ -7095,7 +7285,7 @@
       <c r="B10" s="26">
         <v>7</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="83" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -7116,7 +7306,7 @@
       <c r="B11" s="26">
         <v>8</v>
       </c>
-      <c r="C11" s="80"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
@@ -7135,7 +7325,7 @@
       <c r="B12" s="26">
         <v>9</v>
       </c>
-      <c r="C12" s="80"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
@@ -7154,7 +7344,7 @@
       <c r="B13" s="26">
         <v>10</v>
       </c>
-      <c r="C13" s="81"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="14" t="s">
         <v>21</v>
       </c>
@@ -7173,7 +7363,7 @@
       <c r="B14" s="26">
         <v>11</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="83" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -7194,7 +7384,7 @@
       <c r="B15" s="26">
         <v>12</v>
       </c>
-      <c r="C15" s="80"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
@@ -7213,7 +7403,7 @@
       <c r="B16" s="26">
         <v>13</v>
       </c>
-      <c r="C16" s="80"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
@@ -7232,7 +7422,7 @@
       <c r="B17" s="26">
         <v>14</v>
       </c>
-      <c r="C17" s="80"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
@@ -7251,7 +7441,7 @@
       <c r="B18" s="26">
         <v>15</v>
       </c>
-      <c r="C18" s="80"/>
+      <c r="C18" s="84"/>
       <c r="D18" s="9" t="s">
         <v>15</v>
       </c>
@@ -7270,7 +7460,7 @@
       <c r="B19" s="26">
         <v>16</v>
       </c>
-      <c r="C19" s="81"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="18" t="s">
         <v>14</v>
       </c>
@@ -7575,10 +7765,164 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E10" sqref="B3:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.125" customWidth="1"/>
+    <col min="5" max="5" width="35.875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="17.25">
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="33">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G9:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7600,7 +7944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7613,7 +7957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G2"/>
   <sheetViews>
@@ -7653,56 +7997,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="42.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>